--- a/Experimental Data/Forrestal 1/Data.xlsx
+++ b/Experimental Data/Forrestal 1/Data.xlsx
@@ -525,61 +525,61 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>9.30863004032898</v>
+        <v>9.225560542702038</v>
       </c>
       <c r="F2">
         <v>400</v>
       </c>
       <c r="G2">
-        <v>29.03270346800937</v>
+        <v>29.19021929813999</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2">
-        <v>58.23610862146581</v>
+        <v>58.29269067507752</v>
       </c>
       <c r="J2">
         <v>800</v>
       </c>
       <c r="K2">
-        <v>95.6540833686057</v>
+        <v>95.90913636241699</v>
       </c>
       <c r="L2">
         <v>1000</v>
       </c>
       <c r="M2">
-        <v>139.8918019995578</v>
+        <v>140.7152408003495</v>
       </c>
       <c r="N2">
         <v>1200</v>
       </c>
       <c r="O2">
-        <v>190.0169691201307</v>
+        <v>188.2380719512255</v>
       </c>
       <c r="P2">
         <v>1400</v>
       </c>
       <c r="Q2">
-        <v>245.4256588962577</v>
+        <v>242.5460437695143</v>
       </c>
       <c r="R2">
         <v>1600</v>
       </c>
       <c r="S2">
-        <v>301.710582754441</v>
+        <v>303.6233179064252</v>
       </c>
       <c r="T2">
         <v>1800</v>
       </c>
       <c r="U2">
-        <v>359.5789547596162</v>
+        <v>361.0758769170115</v>
       </c>
       <c r="V2">
         <v>2000</v>
       </c>
       <c r="W2">
-        <v>418.7286653696255</v>
+        <v>420.4618666010106</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -596,61 +596,61 @@
         <v>200</v>
       </c>
       <c r="E3">
-        <v>9.277758489953058</v>
+        <v>9.288719801936217</v>
       </c>
       <c r="F3">
         <v>400</v>
       </c>
       <c r="G3">
-        <v>29.10335914058928</v>
+        <v>28.98865968279923</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3">
-        <v>58.4496013659104</v>
+        <v>58.29666747595638</v>
       </c>
       <c r="J3">
         <v>800</v>
       </c>
       <c r="K3">
-        <v>96.02079522434498</v>
+        <v>96.03699656841283</v>
       </c>
       <c r="L3">
         <v>1000</v>
       </c>
       <c r="M3">
-        <v>141.6946501334161</v>
+        <v>139.9432219039808</v>
       </c>
       <c r="N3">
         <v>1200</v>
       </c>
       <c r="O3">
-        <v>192.1630138053803</v>
+        <v>190.6149302967619</v>
       </c>
       <c r="P3">
         <v>1400</v>
       </c>
       <c r="Q3">
-        <v>244.9204849992807</v>
+        <v>244.08514132991</v>
       </c>
       <c r="R3">
         <v>1600</v>
       </c>
       <c r="S3">
-        <v>301.35824752038</v>
+        <v>301.6880487213243</v>
       </c>
       <c r="T3">
         <v>1800</v>
       </c>
       <c r="U3">
-        <v>358.8695548879064</v>
+        <v>359.6251925898826</v>
       </c>
       <c r="V3">
         <v>2000</v>
       </c>
       <c r="W3">
-        <v>420.4189431316648</v>
+        <v>418.2746456242098</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -667,61 +667,61 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <v>9.201528615532082</v>
+        <v>9.269983112646251</v>
       </c>
       <c r="F4">
         <v>400</v>
       </c>
       <c r="G4">
-        <v>29.20959648891203</v>
+        <v>29.03896439850875</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4">
-        <v>58.61672786559019</v>
+        <v>58.13345015448413</v>
       </c>
       <c r="J4">
         <v>800</v>
       </c>
       <c r="K4">
-        <v>96.86485559355206</v>
+        <v>96.63887157552949</v>
       </c>
       <c r="L4">
         <v>1000</v>
       </c>
       <c r="M4">
-        <v>140.1445632397531</v>
+        <v>139.9632605539087</v>
       </c>
       <c r="N4">
         <v>1200</v>
       </c>
       <c r="O4">
-        <v>191.2592159740925</v>
+        <v>190.3916940283945</v>
       </c>
       <c r="P4">
         <v>1400</v>
       </c>
       <c r="Q4">
-        <v>242.9000602179426</v>
+        <v>246.013536204572</v>
       </c>
       <c r="R4">
         <v>1600</v>
       </c>
       <c r="S4">
-        <v>302.1133378764205</v>
+        <v>301.7681266828792</v>
       </c>
       <c r="T4">
         <v>1800</v>
       </c>
       <c r="U4">
-        <v>363.661479236617</v>
+        <v>363.2150234429789</v>
       </c>
       <c r="V4">
         <v>2000</v>
       </c>
       <c r="W4">
-        <v>419.6185809465035</v>
+        <v>421.5448504618462</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -738,61 +738,61 @@
         <v>200</v>
       </c>
       <c r="E5">
-        <v>9.248177990223057</v>
+        <v>9.165938853316517</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5">
-        <v>29.11539554664072</v>
+        <v>29.10018206948092</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5">
-        <v>58.47580928551501</v>
+        <v>58.39060997381402</v>
       </c>
       <c r="J5">
         <v>800</v>
       </c>
       <c r="K5">
-        <v>96.04420361203347</v>
+        <v>95.8249702148846</v>
       </c>
       <c r="L5">
         <v>1000</v>
       </c>
       <c r="M5">
-        <v>141.812892502379</v>
+        <v>140.6910278431808</v>
       </c>
       <c r="N5">
         <v>1200</v>
       </c>
       <c r="O5">
-        <v>191.5247328740271</v>
+        <v>191.0951297707743</v>
       </c>
       <c r="P5">
         <v>1400</v>
       </c>
       <c r="Q5">
-        <v>245.8684224066806</v>
+        <v>242.8293723402547</v>
       </c>
       <c r="R5">
         <v>1600</v>
       </c>
       <c r="S5">
-        <v>298.781822615222</v>
+        <v>301.6095074847737</v>
       </c>
       <c r="T5">
         <v>1800</v>
       </c>
       <c r="U5">
-        <v>360.5244569476528</v>
+        <v>360.9463281683284</v>
       </c>
       <c r="V5">
         <v>2000</v>
       </c>
       <c r="W5">
-        <v>421.502130328619</v>
+        <v>422.229689022067</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -809,61 +809,61 @@
         <v>200</v>
       </c>
       <c r="E6">
-        <v>9.248962897707788</v>
+        <v>9.18008457417732</v>
       </c>
       <c r="F6">
         <v>400</v>
       </c>
       <c r="G6">
-        <v>28.86678927208077</v>
+        <v>29.10038380511844</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6">
-        <v>58.07628285751085</v>
+        <v>58.28973278660889</v>
       </c>
       <c r="J6">
         <v>800</v>
       </c>
       <c r="K6">
-        <v>95.69821289930626</v>
+        <v>95.91392255039172</v>
       </c>
       <c r="L6">
         <v>1000</v>
       </c>
       <c r="M6">
-        <v>141.6924700057336</v>
+        <v>140.939982103672</v>
       </c>
       <c r="N6">
         <v>1200</v>
       </c>
       <c r="O6">
-        <v>189.8392713207426</v>
+        <v>190.2759622018378</v>
       </c>
       <c r="P6">
         <v>1400</v>
       </c>
       <c r="Q6">
-        <v>245.9376871586734</v>
+        <v>242.4344732843545</v>
       </c>
       <c r="R6">
         <v>1600</v>
       </c>
       <c r="S6">
-        <v>301.7440273082043</v>
+        <v>303.1819144628811</v>
       </c>
       <c r="T6">
         <v>1800</v>
       </c>
       <c r="U6">
-        <v>361.8024274768933</v>
+        <v>360.8755919589535</v>
       </c>
       <c r="V6">
         <v>2000</v>
       </c>
       <c r="W6">
-        <v>420.3501370260884</v>
+        <v>418.2771115045873</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -880,61 +880,61 @@
         <v>200</v>
       </c>
       <c r="E7">
-        <v>9.178732629016743</v>
+        <v>9.271761192027251</v>
       </c>
       <c r="F7">
         <v>400</v>
       </c>
       <c r="G7">
-        <v>28.882173960735</v>
+        <v>28.7547376752639</v>
       </c>
       <c r="H7">
         <v>600</v>
       </c>
       <c r="I7">
-        <v>58.43333170444728</v>
+        <v>58.73645113523717</v>
       </c>
       <c r="J7">
         <v>800</v>
       </c>
       <c r="K7">
-        <v>96.13853016030002</v>
+        <v>96.68539382463648</v>
       </c>
       <c r="L7">
         <v>1000</v>
       </c>
       <c r="M7">
-        <v>139.6694053934375</v>
+        <v>140.3614114683401</v>
       </c>
       <c r="N7">
         <v>1200</v>
       </c>
       <c r="O7">
-        <v>189.2180469519699</v>
+        <v>191.0632084399734</v>
       </c>
       <c r="P7">
         <v>1400</v>
       </c>
       <c r="Q7">
-        <v>243.9715147305045</v>
+        <v>246.1548563210575</v>
       </c>
       <c r="R7">
         <v>1600</v>
       </c>
       <c r="S7">
-        <v>300.1724991559713</v>
+        <v>298.412490034355</v>
       </c>
       <c r="T7">
         <v>1800</v>
       </c>
       <c r="U7">
-        <v>360.1112676775618</v>
+        <v>363.3051029894021</v>
       </c>
       <c r="V7">
         <v>2000</v>
       </c>
       <c r="W7">
-        <v>419.7329574525725</v>
+        <v>422.5515394294478</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -951,61 +951,61 @@
         <v>200</v>
       </c>
       <c r="E8">
-        <v>9.314755787251071</v>
+        <v>9.205606449863545</v>
       </c>
       <c r="F8">
         <v>400</v>
       </c>
       <c r="G8">
-        <v>29.2246511524143</v>
+        <v>29.11727353477671</v>
       </c>
       <c r="H8">
         <v>600</v>
       </c>
       <c r="I8">
-        <v>58.01044698036931</v>
+        <v>58.57074013772819</v>
       </c>
       <c r="J8">
         <v>800</v>
       </c>
       <c r="K8">
-        <v>95.7620216638027</v>
+        <v>96.41368314271492</v>
       </c>
       <c r="L8">
         <v>1000</v>
       </c>
       <c r="M8">
-        <v>141.1304949472736</v>
+        <v>140.7310840600057</v>
       </c>
       <c r="N8">
         <v>1200</v>
       </c>
       <c r="O8">
-        <v>190.7925284492839</v>
+        <v>191.7244096161893</v>
       </c>
       <c r="P8">
         <v>1400</v>
       </c>
       <c r="Q8">
-        <v>245.4218343543448</v>
+        <v>244.0461704153517</v>
       </c>
       <c r="R8">
         <v>1600</v>
       </c>
       <c r="S8">
-        <v>303.0309012172526</v>
+        <v>302.0749618421949</v>
       </c>
       <c r="T8">
         <v>1800</v>
       </c>
       <c r="U8">
-        <v>359.5582163636866</v>
+        <v>362.2920649131884</v>
       </c>
       <c r="V8">
         <v>2000</v>
       </c>
       <c r="W8">
-        <v>418.6398615617068</v>
+        <v>420.9424130083218</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1022,61 +1022,61 @@
         <v>200</v>
       </c>
       <c r="E9">
-        <v>9.195451668994925</v>
+        <v>9.249587157250911</v>
       </c>
       <c r="F9">
         <v>400</v>
       </c>
       <c r="G9">
-        <v>28.93814613606603</v>
+        <v>28.9234459027841</v>
       </c>
       <c r="H9">
         <v>600</v>
       </c>
       <c r="I9">
-        <v>58.14433194668787</v>
+        <v>58.5434242788757</v>
       </c>
       <c r="J9">
         <v>800</v>
       </c>
       <c r="K9">
-        <v>96.57194845782631</v>
+        <v>95.91045554881464</v>
       </c>
       <c r="L9">
         <v>1000</v>
       </c>
       <c r="M9">
-        <v>140.1263747627087</v>
+        <v>141.7567245541115</v>
       </c>
       <c r="N9">
         <v>1200</v>
       </c>
       <c r="O9">
-        <v>189.8760915483989</v>
+        <v>190.7234350047019</v>
       </c>
       <c r="P9">
         <v>1400</v>
       </c>
       <c r="Q9">
-        <v>246.2273393201708</v>
+        <v>243.2759322447564</v>
       </c>
       <c r="R9">
         <v>1600</v>
       </c>
       <c r="S9">
-        <v>302.9260352576358</v>
+        <v>301.530829100374</v>
       </c>
       <c r="T9">
         <v>1800</v>
       </c>
       <c r="U9">
-        <v>360.8481100275988</v>
+        <v>361.7563587850524</v>
       </c>
       <c r="V9">
         <v>2000</v>
       </c>
       <c r="W9">
-        <v>420.3225480891192</v>
+        <v>421.5442395620371</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1093,61 +1093,61 @@
         <v>200</v>
       </c>
       <c r="E10">
-        <v>9.214795228510281</v>
+        <v>9.2105966909096</v>
       </c>
       <c r="F10">
         <v>400</v>
       </c>
       <c r="G10">
-        <v>29.01863490146716</v>
+        <v>28.84315074126088</v>
       </c>
       <c r="H10">
         <v>600</v>
       </c>
       <c r="I10">
-        <v>58.60030394152985</v>
+        <v>57.99119214176034</v>
       </c>
       <c r="J10">
         <v>800</v>
       </c>
       <c r="K10">
-        <v>95.62944222911301</v>
+        <v>95.50903360901201</v>
       </c>
       <c r="L10">
         <v>1000</v>
       </c>
       <c r="M10">
-        <v>140.4291760745869</v>
+        <v>140.0595030796908</v>
       </c>
       <c r="N10">
         <v>1200</v>
       </c>
       <c r="O10">
-        <v>191.5863658773</v>
+        <v>191.640312402435</v>
       </c>
       <c r="P10">
         <v>1400</v>
       </c>
       <c r="Q10">
-        <v>244.8696337401041</v>
+        <v>243.1582664731485</v>
       </c>
       <c r="R10">
         <v>1600</v>
       </c>
       <c r="S10">
-        <v>299.8525256343992</v>
+        <v>300.3390407250864</v>
       </c>
       <c r="T10">
         <v>1800</v>
       </c>
       <c r="U10">
-        <v>357.5424351557003</v>
+        <v>360.4162194029838</v>
       </c>
       <c r="V10">
         <v>2000</v>
       </c>
       <c r="W10">
-        <v>423.4248438378476</v>
+        <v>423.2377391058261</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1164,61 +1164,61 @@
         <v>200</v>
       </c>
       <c r="E11">
-        <v>9.250124560922638</v>
+        <v>9.299203872201192</v>
       </c>
       <c r="F11">
         <v>400</v>
       </c>
       <c r="G11">
-        <v>29.24009021289562</v>
+        <v>28.89584821329672</v>
       </c>
       <c r="H11">
         <v>600</v>
       </c>
       <c r="I11">
-        <v>58.24595248787976</v>
+        <v>58.51815720114336</v>
       </c>
       <c r="J11">
         <v>800</v>
       </c>
       <c r="K11">
-        <v>96.53581459024119</v>
+        <v>96.15516505022954</v>
       </c>
       <c r="L11">
         <v>1000</v>
       </c>
       <c r="M11">
-        <v>140.1339829142537</v>
+        <v>139.8390781083932</v>
       </c>
       <c r="N11">
         <v>1200</v>
       </c>
       <c r="O11">
-        <v>189.2836536721253</v>
+        <v>190.3936046746102</v>
       </c>
       <c r="P11">
         <v>1400</v>
       </c>
       <c r="Q11">
-        <v>243.0492071540429</v>
+        <v>244.7848908481947</v>
       </c>
       <c r="R11">
         <v>1600</v>
       </c>
       <c r="S11">
-        <v>301.0893576482617</v>
+        <v>303.6410643015381</v>
       </c>
       <c r="T11">
         <v>1800</v>
       </c>
       <c r="U11">
-        <v>359.5213546358531</v>
+        <v>360.3207831768846</v>
       </c>
       <c r="V11">
         <v>2000</v>
       </c>
       <c r="W11">
-        <v>417.9803549942281</v>
+        <v>418.2347081661201</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1235,61 +1235,61 @@
         <v>200</v>
       </c>
       <c r="E12">
-        <v>9.289205313609479</v>
+        <v>9.269111650582092</v>
       </c>
       <c r="F12">
         <v>400</v>
       </c>
       <c r="G12">
-        <v>28.83140252494398</v>
+        <v>28.92465794661448</v>
       </c>
       <c r="H12">
         <v>600</v>
       </c>
       <c r="I12">
-        <v>58.0254686586669</v>
+        <v>58.0788048813602</v>
       </c>
       <c r="J12">
         <v>800</v>
       </c>
       <c r="K12">
-        <v>96.29719209990635</v>
+        <v>96.14272503853637</v>
       </c>
       <c r="L12">
         <v>1000</v>
       </c>
       <c r="M12">
-        <v>140.0602233120696</v>
+        <v>139.9676856224672</v>
       </c>
       <c r="N12">
         <v>1200</v>
       </c>
       <c r="O12">
-        <v>190.1925196176669</v>
+        <v>192.794478186239</v>
       </c>
       <c r="P12">
         <v>1400</v>
       </c>
       <c r="Q12">
-        <v>244.9311078457838</v>
+        <v>245.7595090663399</v>
       </c>
       <c r="R12">
         <v>1600</v>
       </c>
       <c r="S12">
-        <v>300.1646901286552</v>
+        <v>302.9611438573811</v>
       </c>
       <c r="T12">
         <v>1800</v>
       </c>
       <c r="U12">
-        <v>361.6795931288454</v>
+        <v>360.8273219243925</v>
       </c>
       <c r="V12">
         <v>2000</v>
       </c>
       <c r="W12">
-        <v>420.790277065622</v>
+        <v>420.0698582245603</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1306,61 +1306,61 @@
         <v>200</v>
       </c>
       <c r="E13">
-        <v>9.291474376240545</v>
+        <v>9.223017957929624</v>
       </c>
       <c r="F13">
         <v>400</v>
       </c>
       <c r="G13">
-        <v>29.27797739356357</v>
+        <v>29.04340671213476</v>
       </c>
       <c r="H13">
         <v>600</v>
       </c>
       <c r="I13">
-        <v>58.67975694940208</v>
+        <v>57.97347643561386</v>
       </c>
       <c r="J13">
         <v>800</v>
       </c>
       <c r="K13">
-        <v>96.31004155184763</v>
+        <v>95.83871020007943</v>
       </c>
       <c r="L13">
         <v>1000</v>
       </c>
       <c r="M13">
-        <v>140.8252050942428</v>
+        <v>141.3266717252238</v>
       </c>
       <c r="N13">
         <v>1200</v>
       </c>
       <c r="O13">
-        <v>190.5599142999095</v>
+        <v>190.7296864920755</v>
       </c>
       <c r="P13">
         <v>1400</v>
       </c>
       <c r="Q13">
-        <v>245.2069016583999</v>
+        <v>244.0065984645824</v>
       </c>
       <c r="R13">
         <v>1600</v>
       </c>
       <c r="S13">
-        <v>301.1616831771692</v>
+        <v>301.1320261047825</v>
       </c>
       <c r="T13">
         <v>1800</v>
       </c>
       <c r="U13">
-        <v>360.9552674675837</v>
+        <v>361.3665700586596</v>
       </c>
       <c r="V13">
         <v>2000</v>
       </c>
       <c r="W13">
-        <v>418.7836037996417</v>
+        <v>422.1144357440897</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1377,61 +1377,61 @@
         <v>200</v>
       </c>
       <c r="E14">
-        <v>9.271195902907037</v>
+        <v>9.203829902719809</v>
       </c>
       <c r="F14">
         <v>400</v>
       </c>
       <c r="G14">
-        <v>29.22881536204865</v>
+        <v>28.83633799171518</v>
       </c>
       <c r="H14">
         <v>600</v>
       </c>
       <c r="I14">
-        <v>58.2273795818546</v>
+        <v>58.19605800721003</v>
       </c>
       <c r="J14">
         <v>800</v>
       </c>
       <c r="K14">
-        <v>96.75145687157863</v>
+        <v>95.83841973028247</v>
       </c>
       <c r="L14">
         <v>1000</v>
       </c>
       <c r="M14">
-        <v>139.8419170291665</v>
+        <v>140.9692637568669</v>
       </c>
       <c r="N14">
         <v>1200</v>
       </c>
       <c r="O14">
-        <v>189.9834734632737</v>
+        <v>190.5209952050884</v>
       </c>
       <c r="P14">
         <v>1400</v>
       </c>
       <c r="Q14">
-        <v>243.197269245828</v>
+        <v>245.9502314972635</v>
       </c>
       <c r="R14">
         <v>1600</v>
       </c>
       <c r="S14">
-        <v>299.5890822794441</v>
+        <v>301.6014017501831</v>
       </c>
       <c r="T14">
         <v>1800</v>
       </c>
       <c r="U14">
-        <v>364.9241737715115</v>
+        <v>359.7791220473907</v>
       </c>
       <c r="V14">
         <v>2000</v>
       </c>
       <c r="W14">
-        <v>421.9459657655955</v>
+        <v>424.393895297829</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1448,61 +1448,61 @@
         <v>200</v>
       </c>
       <c r="E15">
-        <v>9.28059822512718</v>
+        <v>9.24084804366893</v>
       </c>
       <c r="F15">
         <v>400</v>
       </c>
       <c r="G15">
-        <v>29.0151211321392</v>
+        <v>29.05741123233021</v>
       </c>
       <c r="H15">
         <v>600</v>
       </c>
       <c r="I15">
-        <v>58.58086913420143</v>
+        <v>58.96790100389432</v>
       </c>
       <c r="J15">
         <v>800</v>
       </c>
       <c r="K15">
-        <v>95.58039807601793</v>
+        <v>95.7614233240827</v>
       </c>
       <c r="L15">
         <v>1000</v>
       </c>
       <c r="M15">
-        <v>140.6005129642912</v>
+        <v>140.7890834529187</v>
       </c>
       <c r="N15">
         <v>1200</v>
       </c>
       <c r="O15">
-        <v>190.1723223929091</v>
+        <v>189.8096515071663</v>
       </c>
       <c r="P15">
         <v>1400</v>
       </c>
       <c r="Q15">
-        <v>244.3150085084691</v>
+        <v>245.7177569562227</v>
       </c>
       <c r="R15">
         <v>1600</v>
       </c>
       <c r="S15">
-        <v>299.3210176883478</v>
+        <v>300.781876936045</v>
       </c>
       <c r="T15">
         <v>1800</v>
       </c>
       <c r="U15">
-        <v>361.8805452248569</v>
+        <v>361.3042138164753</v>
       </c>
       <c r="V15">
         <v>2000</v>
       </c>
       <c r="W15">
-        <v>421.6691834469319</v>
+        <v>422.6770207810252</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1519,61 +1519,61 @@
         <v>200</v>
       </c>
       <c r="E16">
-        <v>9.203373143004265</v>
+        <v>9.160016486073369</v>
       </c>
       <c r="F16">
         <v>400</v>
       </c>
       <c r="G16">
-        <v>29.1264245212116</v>
+        <v>29.28031105246635</v>
       </c>
       <c r="H16">
         <v>600</v>
       </c>
       <c r="I16">
-        <v>57.88519606939316</v>
+        <v>58.4674634939793</v>
       </c>
       <c r="J16">
         <v>800</v>
       </c>
       <c r="K16">
-        <v>96.07756550012463</v>
+        <v>96.73174212507371</v>
       </c>
       <c r="L16">
         <v>1000</v>
       </c>
       <c r="M16">
-        <v>140.7222996199991</v>
+        <v>139.8582239758412</v>
       </c>
       <c r="N16">
         <v>1200</v>
       </c>
       <c r="O16">
-        <v>191.0626883641824</v>
+        <v>190.672048050362</v>
       </c>
       <c r="P16">
         <v>1400</v>
       </c>
       <c r="Q16">
-        <v>245.0262850406201</v>
+        <v>241.4502274018051</v>
       </c>
       <c r="R16">
         <v>1600</v>
       </c>
       <c r="S16">
-        <v>302.7330265016751</v>
+        <v>302.496821083155</v>
       </c>
       <c r="T16">
         <v>1800</v>
       </c>
       <c r="U16">
-        <v>360.0458439317139</v>
+        <v>360.4716779984967</v>
       </c>
       <c r="V16">
         <v>2000</v>
       </c>
       <c r="W16">
-        <v>419.1603903579492</v>
+        <v>422.231838654225</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1590,61 +1590,61 @@
         <v>200</v>
       </c>
       <c r="E17">
-        <v>9.190152362340379</v>
+        <v>9.178134462959239</v>
       </c>
       <c r="F17">
         <v>400</v>
       </c>
       <c r="G17">
-        <v>29.15385809103737</v>
+        <v>29.21748726815198</v>
       </c>
       <c r="H17">
         <v>600</v>
       </c>
       <c r="I17">
-        <v>58.15700194686747</v>
+        <v>58.66392976005421</v>
       </c>
       <c r="J17">
         <v>800</v>
       </c>
       <c r="K17">
-        <v>96.20516511258845</v>
+        <v>96.25301422949295</v>
       </c>
       <c r="L17">
         <v>1000</v>
       </c>
       <c r="M17">
-        <v>139.2805156772</v>
+        <v>141.0521571776745</v>
       </c>
       <c r="N17">
         <v>1200</v>
       </c>
       <c r="O17">
-        <v>190.2599358425154</v>
+        <v>190.8388434109043</v>
       </c>
       <c r="P17">
         <v>1400</v>
       </c>
       <c r="Q17">
-        <v>243.6255219506758</v>
+        <v>245.3408811138234</v>
       </c>
       <c r="R17">
         <v>1600</v>
       </c>
       <c r="S17">
-        <v>303.6985707177075</v>
+        <v>302.3289005133192</v>
       </c>
       <c r="T17">
         <v>1800</v>
       </c>
       <c r="U17">
-        <v>362.3722851127454</v>
+        <v>359.656474707192</v>
       </c>
       <c r="V17">
         <v>2000</v>
       </c>
       <c r="W17">
-        <v>419.0167221432656</v>
+        <v>419.8484724414186</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1661,61 +1661,61 @@
         <v>200</v>
       </c>
       <c r="E18">
-        <v>9.271045371077024</v>
+        <v>9.208716447274918</v>
       </c>
       <c r="F18">
         <v>400</v>
       </c>
       <c r="G18">
-        <v>28.8885380431191</v>
+        <v>28.83123814833268</v>
       </c>
       <c r="H18">
         <v>600</v>
       </c>
       <c r="I18">
-        <v>58.29846952630215</v>
+        <v>58.28434968496722</v>
       </c>
       <c r="J18">
         <v>800</v>
       </c>
       <c r="K18">
-        <v>96.10535141714517</v>
+        <v>95.72467475098303</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>141.638655899255</v>
+        <v>141.5742811438992</v>
       </c>
       <c r="N18">
         <v>1200</v>
       </c>
       <c r="O18">
-        <v>190.6338558034045</v>
+        <v>191.1210677321989</v>
       </c>
       <c r="P18">
         <v>1400</v>
       </c>
       <c r="Q18">
-        <v>245.0558369873614</v>
+        <v>243.7676721077613</v>
       </c>
       <c r="R18">
         <v>1600</v>
       </c>
       <c r="S18">
-        <v>302.4361877114578</v>
+        <v>301.7849470462256</v>
       </c>
       <c r="T18">
         <v>1800</v>
       </c>
       <c r="U18">
-        <v>358.9740220713547</v>
+        <v>359.7736707898276</v>
       </c>
       <c r="V18">
         <v>2000</v>
       </c>
       <c r="W18">
-        <v>422.1326290349501</v>
+        <v>421.9284701760675</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1732,61 +1732,61 @@
         <v>200</v>
       </c>
       <c r="E19">
-        <v>9.288945414514126</v>
+        <v>9.285524667471707</v>
       </c>
       <c r="F19">
         <v>400</v>
       </c>
       <c r="G19">
-        <v>29.00403217825419</v>
+        <v>28.8382154576258</v>
       </c>
       <c r="H19">
         <v>600</v>
       </c>
       <c r="I19">
-        <v>58.17493863189382</v>
+        <v>58.24844403569909</v>
       </c>
       <c r="J19">
         <v>800</v>
       </c>
       <c r="K19">
-        <v>96.62721377428383</v>
+        <v>96.49865140945769</v>
       </c>
       <c r="L19">
         <v>1000</v>
       </c>
       <c r="M19">
-        <v>139.336867047427</v>
+        <v>140.7838816035144</v>
       </c>
       <c r="N19">
         <v>1200</v>
       </c>
       <c r="O19">
-        <v>189.8048454783749</v>
+        <v>191.538245973943</v>
       </c>
       <c r="P19">
         <v>1400</v>
       </c>
       <c r="Q19">
-        <v>244.8506786955437</v>
+        <v>243.8126419169975</v>
       </c>
       <c r="R19">
         <v>1600</v>
       </c>
       <c r="S19">
-        <v>303.0111904396659</v>
+        <v>303.5749533333141</v>
       </c>
       <c r="T19">
         <v>1800</v>
       </c>
       <c r="U19">
-        <v>360.4997665144044</v>
+        <v>363.6312517618115</v>
       </c>
       <c r="V19">
         <v>2000</v>
       </c>
       <c r="W19">
-        <v>420.9812709246681</v>
+        <v>423.7912743322395</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1803,61 +1803,61 @@
         <v>200</v>
       </c>
       <c r="E20">
-        <v>9.142270606295696</v>
+        <v>9.307121745553886</v>
       </c>
       <c r="F20">
         <v>400</v>
       </c>
       <c r="G20">
-        <v>29.16689233928557</v>
+        <v>28.99666658186705</v>
       </c>
       <c r="H20">
         <v>600</v>
       </c>
       <c r="I20">
-        <v>58.29252912444458</v>
+        <v>58.8718203972624</v>
       </c>
       <c r="J20">
         <v>800</v>
       </c>
       <c r="K20">
-        <v>96.58533682561436</v>
+        <v>95.04801129529119</v>
       </c>
       <c r="L20">
         <v>1000</v>
       </c>
       <c r="M20">
-        <v>140.4860276253683</v>
+        <v>139.9211270568627</v>
       </c>
       <c r="N20">
         <v>1200</v>
       </c>
       <c r="O20">
-        <v>190.6911706259673</v>
+        <v>190.1266613315186</v>
       </c>
       <c r="P20">
         <v>1400</v>
       </c>
       <c r="Q20">
-        <v>243.308274600167</v>
+        <v>243.8088990884175</v>
       </c>
       <c r="R20">
         <v>1600</v>
       </c>
       <c r="S20">
-        <v>302.6062342465884</v>
+        <v>301.2388743846294</v>
       </c>
       <c r="T20">
         <v>1800</v>
       </c>
       <c r="U20">
-        <v>362.3994969304861</v>
+        <v>361.5816354165675</v>
       </c>
       <c r="V20">
         <v>2000</v>
       </c>
       <c r="W20">
-        <v>419.7613899595425</v>
+        <v>420.8269074017456</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1874,61 +1874,61 @@
         <v>200</v>
       </c>
       <c r="E21">
-        <v>9.305538795484724</v>
+        <v>9.253372023211968</v>
       </c>
       <c r="F21">
         <v>400</v>
       </c>
       <c r="G21">
-        <v>29.06923900376795</v>
+        <v>29.13060358678601</v>
       </c>
       <c r="H21">
         <v>600</v>
       </c>
       <c r="I21">
-        <v>58.49457866632621</v>
+        <v>58.50007115608558</v>
       </c>
       <c r="J21">
         <v>800</v>
       </c>
       <c r="K21">
-        <v>96.39270211072221</v>
+        <v>95.97581120677135</v>
       </c>
       <c r="L21">
         <v>1000</v>
       </c>
       <c r="M21">
-        <v>140.1726278406773</v>
+        <v>141.3697276887697</v>
       </c>
       <c r="N21">
         <v>1200</v>
       </c>
       <c r="O21">
-        <v>190.5926715206303</v>
+        <v>189.7415278811188</v>
       </c>
       <c r="P21">
         <v>1400</v>
       </c>
       <c r="Q21">
-        <v>244.8205843042224</v>
+        <v>244.846619235208</v>
       </c>
       <c r="R21">
         <v>1600</v>
       </c>
       <c r="S21">
-        <v>302.234859920733</v>
+        <v>302.4819725487058</v>
       </c>
       <c r="T21">
         <v>1800</v>
       </c>
       <c r="U21">
-        <v>357.4290469729273</v>
+        <v>359.3575935724031</v>
       </c>
       <c r="V21">
         <v>2000</v>
       </c>
       <c r="W21">
-        <v>424.871937014112</v>
+        <v>419.4735489145421</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1945,61 +1945,61 @@
         <v>200</v>
       </c>
       <c r="E22">
-        <v>9.248589907836056</v>
+        <v>9.229207646171638</v>
       </c>
       <c r="F22">
         <v>400</v>
       </c>
       <c r="G22">
-        <v>28.98582336211577</v>
+        <v>29.17871979618395</v>
       </c>
       <c r="H22">
         <v>600</v>
       </c>
       <c r="I22">
-        <v>58.56285555331648</v>
+        <v>58.73003319364331</v>
       </c>
       <c r="J22">
         <v>800</v>
       </c>
       <c r="K22">
-        <v>95.85679296114593</v>
+        <v>96.70137341172428</v>
       </c>
       <c r="L22">
         <v>1000</v>
       </c>
       <c r="M22">
-        <v>141.3034635427901</v>
+        <v>140.5273408811894</v>
       </c>
       <c r="N22">
         <v>1200</v>
       </c>
       <c r="O22">
-        <v>190.6155306166393</v>
+        <v>190.2185629301585</v>
       </c>
       <c r="P22">
         <v>1400</v>
       </c>
       <c r="Q22">
-        <v>244.9376003186748</v>
+        <v>243.5968520276997</v>
       </c>
       <c r="R22">
         <v>1600</v>
       </c>
       <c r="S22">
-        <v>303.2484486527768</v>
+        <v>301.2612259642466</v>
       </c>
       <c r="T22">
         <v>1800</v>
       </c>
       <c r="U22">
-        <v>359.9763971323779</v>
+        <v>360.0258892373335</v>
       </c>
       <c r="V22">
         <v>2000</v>
       </c>
       <c r="W22">
-        <v>420.7859334623328</v>
+        <v>421.6377023866221</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2016,61 +2016,61 @@
         <v>200</v>
       </c>
       <c r="E23">
-        <v>9.236223810121421</v>
+        <v>9.218347753102963</v>
       </c>
       <c r="F23">
         <v>400</v>
       </c>
       <c r="G23">
-        <v>29.08429432728342</v>
+        <v>28.88528089095943</v>
       </c>
       <c r="H23">
         <v>600</v>
       </c>
       <c r="I23">
-        <v>58.58773971879041</v>
+        <v>58.69383600964482</v>
       </c>
       <c r="J23">
         <v>800</v>
       </c>
       <c r="K23">
-        <v>96.1604532207763</v>
+        <v>95.28698772454298</v>
       </c>
       <c r="L23">
         <v>1000</v>
       </c>
       <c r="M23">
-        <v>140.8805395009433</v>
+        <v>141.0876032455621</v>
       </c>
       <c r="N23">
         <v>1200</v>
       </c>
       <c r="O23">
-        <v>190.8330057628569</v>
+        <v>191.0000566481837</v>
       </c>
       <c r="P23">
         <v>1400</v>
       </c>
       <c r="Q23">
-        <v>244.282939288643</v>
+        <v>243.8601337708487</v>
       </c>
       <c r="R23">
         <v>1600</v>
       </c>
       <c r="S23">
-        <v>302.7463522312526</v>
+        <v>302.6087875091412</v>
       </c>
       <c r="T23">
         <v>1800</v>
       </c>
       <c r="U23">
-        <v>360.7377117684825</v>
+        <v>361.2279921425797</v>
       </c>
       <c r="V23">
         <v>2000</v>
       </c>
       <c r="W23">
-        <v>421.9742370859562</v>
+        <v>420.562825154526</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2087,61 +2087,61 @@
         <v>200</v>
       </c>
       <c r="E24">
-        <v>9.222581919509382</v>
+        <v>9.280133279596043</v>
       </c>
       <c r="F24">
         <v>400</v>
       </c>
       <c r="G24">
-        <v>29.01686753158922</v>
+        <v>28.96233991112019</v>
       </c>
       <c r="H24">
         <v>600</v>
       </c>
       <c r="I24">
-        <v>58.20171663817798</v>
+        <v>58.34231391146974</v>
       </c>
       <c r="J24">
         <v>800</v>
       </c>
       <c r="K24">
-        <v>95.90246897667843</v>
+        <v>96.30595529841504</v>
       </c>
       <c r="L24">
         <v>1000</v>
       </c>
       <c r="M24">
-        <v>140.7957672426986</v>
+        <v>139.9898642667334</v>
       </c>
       <c r="N24">
         <v>1200</v>
       </c>
       <c r="O24">
-        <v>190.72985559747</v>
+        <v>190.3382235852499</v>
       </c>
       <c r="P24">
         <v>1400</v>
       </c>
       <c r="Q24">
-        <v>246.2557622413887</v>
+        <v>244.9240066086056</v>
       </c>
       <c r="R24">
         <v>1600</v>
       </c>
       <c r="S24">
-        <v>303.1338662070593</v>
+        <v>303.4853800056233</v>
       </c>
       <c r="T24">
         <v>1800</v>
       </c>
       <c r="U24">
-        <v>363.1116456269593</v>
+        <v>358.3669032764012</v>
       </c>
       <c r="V24">
         <v>2000</v>
       </c>
       <c r="W24">
-        <v>418.0341316899209</v>
+        <v>419.3244879818461</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2158,61 +2158,61 @@
         <v>200</v>
       </c>
       <c r="E25">
-        <v>9.261567232595564</v>
+        <v>9.201917193121544</v>
       </c>
       <c r="F25">
         <v>400</v>
       </c>
       <c r="G25">
-        <v>29.11096316578845</v>
+        <v>28.9690922701701</v>
       </c>
       <c r="H25">
         <v>600</v>
       </c>
       <c r="I25">
-        <v>58.23404345165606</v>
+        <v>58.41348588957283</v>
       </c>
       <c r="J25">
         <v>800</v>
       </c>
       <c r="K25">
-        <v>96.51701371607803</v>
+        <v>95.94179145496555</v>
       </c>
       <c r="L25">
         <v>1000</v>
       </c>
       <c r="M25">
-        <v>140.3720087886182</v>
+        <v>139.6697193239514</v>
       </c>
       <c r="N25">
         <v>1200</v>
       </c>
       <c r="O25">
-        <v>187.8129556046023</v>
+        <v>188.8477707686883</v>
       </c>
       <c r="P25">
         <v>1400</v>
       </c>
       <c r="Q25">
-        <v>246.316247566477</v>
+        <v>243.435393523404</v>
       </c>
       <c r="R25">
         <v>1600</v>
       </c>
       <c r="S25">
-        <v>301.0677023392105</v>
+        <v>303.3334658931081</v>
       </c>
       <c r="T25">
         <v>1800</v>
       </c>
       <c r="U25">
-        <v>357.3446282018918</v>
+        <v>364.2328166483212</v>
       </c>
       <c r="V25">
         <v>2000</v>
       </c>
       <c r="W25">
-        <v>420.5254099232071</v>
+        <v>421.5996989463188</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2229,61 +2229,61 @@
         <v>200</v>
       </c>
       <c r="E26">
-        <v>9.19527641595492</v>
+        <v>9.230441547535255</v>
       </c>
       <c r="F26">
         <v>400</v>
       </c>
       <c r="G26">
-        <v>29.00826960859158</v>
+        <v>28.9842036454816</v>
       </c>
       <c r="H26">
         <v>600</v>
       </c>
       <c r="I26">
-        <v>58.14562142955314</v>
+        <v>58.36361260592854</v>
       </c>
       <c r="J26">
         <v>800</v>
       </c>
       <c r="K26">
-        <v>96.56675205308872</v>
+        <v>95.33392209829191</v>
       </c>
       <c r="L26">
         <v>1000</v>
       </c>
       <c r="M26">
-        <v>141.049848774297</v>
+        <v>140.6330308892643</v>
       </c>
       <c r="N26">
         <v>1200</v>
       </c>
       <c r="O26">
-        <v>189.3491006970473</v>
+        <v>191.1744776347008</v>
       </c>
       <c r="P26">
         <v>1400</v>
       </c>
       <c r="Q26">
-        <v>243.5148854448796</v>
+        <v>245.3768084655952</v>
       </c>
       <c r="R26">
         <v>1600</v>
       </c>
       <c r="S26">
-        <v>300.2725613778075</v>
+        <v>301.9031962218668</v>
       </c>
       <c r="T26">
         <v>1800</v>
       </c>
       <c r="U26">
-        <v>361.697974254014</v>
+        <v>361.6620705817381</v>
       </c>
       <c r="V26">
         <v>2000</v>
       </c>
       <c r="W26">
-        <v>419.7096754071353</v>
+        <v>422.3707137501098</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2300,61 +2300,61 @@
         <v>200</v>
       </c>
       <c r="E27">
-        <v>9.281790420533499</v>
+        <v>9.175365681477249</v>
       </c>
       <c r="F27">
         <v>400</v>
       </c>
       <c r="G27">
-        <v>29.08091773545243</v>
+        <v>29.0028940270238</v>
       </c>
       <c r="H27">
         <v>600</v>
       </c>
       <c r="I27">
-        <v>58.76334415675432</v>
+        <v>58.47674714284805</v>
       </c>
       <c r="J27">
         <v>800</v>
       </c>
       <c r="K27">
-        <v>95.96041682472514</v>
+        <v>96.56241956619714</v>
       </c>
       <c r="L27">
         <v>1000</v>
       </c>
       <c r="M27">
-        <v>142.0404189877273</v>
+        <v>140.9048058641179</v>
       </c>
       <c r="N27">
         <v>1200</v>
       </c>
       <c r="O27">
-        <v>191.432373624408</v>
+        <v>190.1224381125131</v>
       </c>
       <c r="P27">
         <v>1400</v>
       </c>
       <c r="Q27">
-        <v>243.1897773434245</v>
+        <v>244.2825751784267</v>
       </c>
       <c r="R27">
         <v>1600</v>
       </c>
       <c r="S27">
-        <v>302.0945806647799</v>
+        <v>299.6461530687965</v>
       </c>
       <c r="T27">
         <v>1800</v>
       </c>
       <c r="U27">
-        <v>360.0171800102623</v>
+        <v>362.3966640739569</v>
       </c>
       <c r="V27">
         <v>2000</v>
       </c>
       <c r="W27">
-        <v>419.1273482925515</v>
+        <v>422.0931903837508</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2371,61 +2371,61 @@
         <v>200</v>
       </c>
       <c r="E28">
-        <v>9.267435160176273</v>
+        <v>9.224219578601801</v>
       </c>
       <c r="F28">
         <v>400</v>
       </c>
       <c r="G28">
-        <v>28.84483229104005</v>
+        <v>29.06750654485122</v>
       </c>
       <c r="H28">
         <v>600</v>
       </c>
       <c r="I28">
-        <v>58.5101017365438</v>
+        <v>58.10443733918256</v>
       </c>
       <c r="J28">
         <v>800</v>
       </c>
       <c r="K28">
-        <v>95.09469655296431</v>
+        <v>96.21280624236802</v>
       </c>
       <c r="L28">
         <v>1000</v>
       </c>
       <c r="M28">
-        <v>141.0232628119841</v>
+        <v>139.9849682336284</v>
       </c>
       <c r="N28">
         <v>1200</v>
       </c>
       <c r="O28">
-        <v>189.2996279263811</v>
+        <v>189.6838510353805</v>
       </c>
       <c r="P28">
         <v>1400</v>
       </c>
       <c r="Q28">
-        <v>245.1319110572057</v>
+        <v>243.7205517660613</v>
       </c>
       <c r="R28">
         <v>1600</v>
       </c>
       <c r="S28">
-        <v>299.1935142799373</v>
+        <v>300.8693943501041</v>
       </c>
       <c r="T28">
         <v>1800</v>
       </c>
       <c r="U28">
-        <v>361.0206715716462</v>
+        <v>361.8660299257477</v>
       </c>
       <c r="V28">
         <v>2000</v>
       </c>
       <c r="W28">
-        <v>419.1600847392021</v>
+        <v>418.7340128032321</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2442,61 +2442,61 @@
         <v>200</v>
       </c>
       <c r="E29">
-        <v>9.340308043605843</v>
+        <v>9.320862774545127</v>
       </c>
       <c r="F29">
         <v>400</v>
       </c>
       <c r="G29">
-        <v>29.04760003202771</v>
+        <v>28.73677381357931</v>
       </c>
       <c r="H29">
         <v>600</v>
       </c>
       <c r="I29">
-        <v>58.24283090279176</v>
+        <v>58.687239359297</v>
       </c>
       <c r="J29">
         <v>800</v>
       </c>
       <c r="K29">
-        <v>95.05265434709307</v>
+        <v>95.52558743392036</v>
       </c>
       <c r="L29">
         <v>1000</v>
       </c>
       <c r="M29">
-        <v>141.0057783072655</v>
+        <v>140.2966347253098</v>
       </c>
       <c r="N29">
         <v>1200</v>
       </c>
       <c r="O29">
-        <v>191.2089315918084</v>
+        <v>192.1635968603604</v>
       </c>
       <c r="P29">
         <v>1400</v>
       </c>
       <c r="Q29">
-        <v>246.8909809669998</v>
+        <v>245.3325709761871</v>
       </c>
       <c r="R29">
         <v>1600</v>
       </c>
       <c r="S29">
-        <v>301.0534893757057</v>
+        <v>301.5490407523481</v>
       </c>
       <c r="T29">
         <v>1800</v>
       </c>
       <c r="U29">
-        <v>358.8964073920121</v>
+        <v>361.46296206421</v>
       </c>
       <c r="V29">
         <v>2000</v>
       </c>
       <c r="W29">
-        <v>421.3583702321909</v>
+        <v>423.5715396465151</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2513,61 +2513,61 @@
         <v>200</v>
       </c>
       <c r="E30">
-        <v>9.274409357793347</v>
+        <v>9.253576512767546</v>
       </c>
       <c r="F30">
         <v>400</v>
       </c>
       <c r="G30">
-        <v>28.94388479207913</v>
+        <v>28.85316075436192</v>
       </c>
       <c r="H30">
         <v>600</v>
       </c>
       <c r="I30">
-        <v>58.30470644019591</v>
+        <v>58.79364484560838</v>
       </c>
       <c r="J30">
         <v>800</v>
       </c>
       <c r="K30">
-        <v>96.64973973516038</v>
+        <v>96.25729612806659</v>
       </c>
       <c r="L30">
         <v>1000</v>
       </c>
       <c r="M30">
-        <v>140.2583548830449</v>
+        <v>141.2682174551337</v>
       </c>
       <c r="N30">
         <v>1200</v>
       </c>
       <c r="O30">
-        <v>189.434143372817</v>
+        <v>190.9488438821797</v>
       </c>
       <c r="P30">
         <v>1400</v>
       </c>
       <c r="Q30">
-        <v>244.3512171419017</v>
+        <v>245.6564169772855</v>
       </c>
       <c r="R30">
         <v>1600</v>
       </c>
       <c r="S30">
-        <v>303.0806361091971</v>
+        <v>301.825080696484</v>
       </c>
       <c r="T30">
         <v>1800</v>
       </c>
       <c r="U30">
-        <v>359.8090360071181</v>
+        <v>360.6450139621357</v>
       </c>
       <c r="V30">
         <v>2000</v>
       </c>
       <c r="W30">
-        <v>423.5772987232761</v>
+        <v>421.1863660914237</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2584,61 +2584,61 @@
         <v>200</v>
       </c>
       <c r="E31">
-        <v>9.207274553877351</v>
+        <v>9.199497334390594</v>
       </c>
       <c r="F31">
         <v>400</v>
       </c>
       <c r="G31">
-        <v>29.16625517683991</v>
+        <v>29.05003179358554</v>
       </c>
       <c r="H31">
         <v>600</v>
       </c>
       <c r="I31">
-        <v>58.16022429109104</v>
+        <v>57.97581387374844</v>
       </c>
       <c r="J31">
         <v>800</v>
       </c>
       <c r="K31">
-        <v>96.71318322758952</v>
+        <v>95.13838640823279</v>
       </c>
       <c r="L31">
         <v>1000</v>
       </c>
       <c r="M31">
-        <v>141.0783518899259</v>
+        <v>140.4215604355208</v>
       </c>
       <c r="N31">
         <v>1200</v>
       </c>
       <c r="O31">
-        <v>189.165863876161</v>
+        <v>190.7761709348977</v>
       </c>
       <c r="P31">
         <v>1400</v>
       </c>
       <c r="Q31">
-        <v>246.0440142757736</v>
+        <v>243.3537852377445</v>
       </c>
       <c r="R31">
         <v>1600</v>
       </c>
       <c r="S31">
-        <v>302.5486395171485</v>
+        <v>299.724668649695</v>
       </c>
       <c r="T31">
         <v>1800</v>
       </c>
       <c r="U31">
-        <v>359.4839827618673</v>
+        <v>359.5999587107529</v>
       </c>
       <c r="V31">
         <v>2000</v>
       </c>
       <c r="W31">
-        <v>420.4532851040772</v>
+        <v>425.4763171442522</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2655,61 +2655,61 @@
         <v>200</v>
       </c>
       <c r="E32">
-        <v>9.217965746379884</v>
+        <v>9.218071243614094</v>
       </c>
       <c r="F32">
         <v>400</v>
       </c>
       <c r="G32">
-        <v>28.99423544009703</v>
+        <v>28.88968605282044</v>
       </c>
       <c r="H32">
         <v>600</v>
       </c>
       <c r="I32">
-        <v>58.32924954992556</v>
+        <v>58.09063663839343</v>
       </c>
       <c r="J32">
         <v>800</v>
       </c>
       <c r="K32">
-        <v>96.64107284445856</v>
+        <v>95.44724435875416</v>
       </c>
       <c r="L32">
         <v>1000</v>
       </c>
       <c r="M32">
-        <v>139.8965034164372</v>
+        <v>140.538512779686</v>
       </c>
       <c r="N32">
         <v>1200</v>
       </c>
       <c r="O32">
-        <v>191.6664974177718</v>
+        <v>189.4990304819233</v>
       </c>
       <c r="P32">
         <v>1400</v>
       </c>
       <c r="Q32">
-        <v>245.7624553387324</v>
+        <v>244.7997230166999</v>
       </c>
       <c r="R32">
         <v>1600</v>
       </c>
       <c r="S32">
-        <v>302.2364040610721</v>
+        <v>303.6895677096473</v>
       </c>
       <c r="T32">
         <v>1800</v>
       </c>
       <c r="U32">
-        <v>360.5095759795477</v>
+        <v>360.0147323721486</v>
       </c>
       <c r="V32">
         <v>2000</v>
       </c>
       <c r="W32">
-        <v>418.1827447493952</v>
+        <v>422.930686631873</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2726,61 +2726,61 @@
         <v>200</v>
       </c>
       <c r="E33">
-        <v>9.235577659614718</v>
+        <v>9.183581672325829</v>
       </c>
       <c r="F33">
         <v>400</v>
       </c>
       <c r="G33">
-        <v>29.08556813677435</v>
+        <v>28.97989235697619</v>
       </c>
       <c r="H33">
         <v>600</v>
       </c>
       <c r="I33">
-        <v>58.33347594659722</v>
+        <v>58.36028452754095</v>
       </c>
       <c r="J33">
         <v>800</v>
       </c>
       <c r="K33">
-        <v>95.87280836735873</v>
+        <v>95.89074023033714</v>
       </c>
       <c r="L33">
         <v>1000</v>
       </c>
       <c r="M33">
-        <v>141.4568945003723</v>
+        <v>140.9008737385298</v>
       </c>
       <c r="N33">
         <v>1200</v>
       </c>
       <c r="O33">
-        <v>187.4912614235476</v>
+        <v>190.4751129704915</v>
       </c>
       <c r="P33">
         <v>1400</v>
       </c>
       <c r="Q33">
-        <v>245.8852907343404</v>
+        <v>245.585259621579</v>
       </c>
       <c r="R33">
         <v>1600</v>
       </c>
       <c r="S33">
-        <v>300.5587645480753</v>
+        <v>302.0087853409624</v>
       </c>
       <c r="T33">
         <v>1800</v>
       </c>
       <c r="U33">
-        <v>360.8767122713367</v>
+        <v>360.156435083406</v>
       </c>
       <c r="V33">
         <v>2000</v>
       </c>
       <c r="W33">
-        <v>417.5192573225175</v>
+        <v>421.337772148838</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2797,61 +2797,61 @@
         <v>200</v>
       </c>
       <c r="E34">
-        <v>9.234283000438438</v>
+        <v>9.234593291645693</v>
       </c>
       <c r="F34">
         <v>400</v>
       </c>
       <c r="G34">
-        <v>29.33640070073007</v>
+        <v>28.78340204869533</v>
       </c>
       <c r="H34">
         <v>600</v>
       </c>
       <c r="I34">
-        <v>58.03845612764139</v>
+        <v>58.14030134952893</v>
       </c>
       <c r="J34">
         <v>800</v>
       </c>
       <c r="K34">
-        <v>96.10759890241168</v>
+        <v>96.3482509064695</v>
       </c>
       <c r="L34">
         <v>1000</v>
       </c>
       <c r="M34">
-        <v>141.6190329627263</v>
+        <v>139.4991440290743</v>
       </c>
       <c r="N34">
         <v>1200</v>
       </c>
       <c r="O34">
-        <v>190.5853122084769</v>
+        <v>191.1667504180985</v>
       </c>
       <c r="P34">
         <v>1400</v>
       </c>
       <c r="Q34">
-        <v>244.3875171514953</v>
+        <v>246.1992450451864</v>
       </c>
       <c r="R34">
         <v>1600</v>
       </c>
       <c r="S34">
-        <v>303.0728396975832</v>
+        <v>301.0073682769552</v>
       </c>
       <c r="T34">
         <v>1800</v>
       </c>
       <c r="U34">
-        <v>359.6613776039313</v>
+        <v>362.7013713748657</v>
       </c>
       <c r="V34">
         <v>2000</v>
       </c>
       <c r="W34">
-        <v>421.0033778686052</v>
+        <v>419.9363269494678</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2868,61 +2868,61 @@
         <v>200</v>
       </c>
       <c r="E35">
-        <v>9.215969594285399</v>
+        <v>9.301768507634119</v>
       </c>
       <c r="F35">
         <v>400</v>
       </c>
       <c r="G35">
-        <v>29.11824830327281</v>
+        <v>28.9474508344794</v>
       </c>
       <c r="H35">
         <v>600</v>
       </c>
       <c r="I35">
-        <v>58.5411872681274</v>
+        <v>58.07255060622952</v>
       </c>
       <c r="J35">
         <v>800</v>
       </c>
       <c r="K35">
-        <v>96.08817944219579</v>
+        <v>95.80938553035631</v>
       </c>
       <c r="L35">
         <v>1000</v>
       </c>
       <c r="M35">
-        <v>142.1830182564406</v>
+        <v>141.9359313904833</v>
       </c>
       <c r="N35">
         <v>1200</v>
       </c>
       <c r="O35">
-        <v>190.2750246362776</v>
+        <v>189.529387548995</v>
       </c>
       <c r="P35">
         <v>1400</v>
       </c>
       <c r="Q35">
-        <v>244.7237094407828</v>
+        <v>245.2883392080796</v>
       </c>
       <c r="R35">
         <v>1600</v>
       </c>
       <c r="S35">
-        <v>303.9708399457094</v>
+        <v>300.129912107034</v>
       </c>
       <c r="T35">
         <v>1800</v>
       </c>
       <c r="U35">
-        <v>362.1960097434663</v>
+        <v>360.3768209291267</v>
       </c>
       <c r="V35">
         <v>2000</v>
       </c>
       <c r="W35">
-        <v>421.4382516258685</v>
+        <v>418.1877047539392</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2939,61 +2939,61 @@
         <v>200</v>
       </c>
       <c r="E36">
-        <v>9.176391719024696</v>
+        <v>9.28937586415058</v>
       </c>
       <c r="F36">
         <v>400</v>
       </c>
       <c r="G36">
-        <v>29.08414156247863</v>
+        <v>28.99416385320222</v>
       </c>
       <c r="H36">
         <v>600</v>
       </c>
       <c r="I36">
-        <v>58.64355149719447</v>
+        <v>58.60792390730186</v>
       </c>
       <c r="J36">
         <v>800</v>
       </c>
       <c r="K36">
-        <v>96.78349707131568</v>
+        <v>95.74027289951984</v>
       </c>
       <c r="L36">
         <v>1000</v>
       </c>
       <c r="M36">
-        <v>140.7210149956907</v>
+        <v>141.8276140373057</v>
       </c>
       <c r="N36">
         <v>1200</v>
       </c>
       <c r="O36">
-        <v>190.978256542035</v>
+        <v>193.0732864872535</v>
       </c>
       <c r="P36">
         <v>1400</v>
       </c>
       <c r="Q36">
-        <v>245.5591932270174</v>
+        <v>244.1757456288805</v>
       </c>
       <c r="R36">
         <v>1600</v>
       </c>
       <c r="S36">
-        <v>300.7959391842517</v>
+        <v>300.4395671046818</v>
       </c>
       <c r="T36">
         <v>1800</v>
       </c>
       <c r="U36">
-        <v>359.2462160335372</v>
+        <v>360.3173486741196</v>
       </c>
       <c r="V36">
         <v>2000</v>
       </c>
       <c r="W36">
-        <v>414.6659313609886</v>
+        <v>422.093949211032</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3010,61 +3010,61 @@
         <v>200</v>
       </c>
       <c r="E37">
-        <v>9.247560850466506</v>
+        <v>9.194156673391419</v>
       </c>
       <c r="F37">
         <v>400</v>
       </c>
       <c r="G37">
-        <v>28.97042901935011</v>
+        <v>29.03403407219756</v>
       </c>
       <c r="H37">
         <v>600</v>
       </c>
       <c r="I37">
-        <v>58.21543888035441</v>
+        <v>58.57959276857977</v>
       </c>
       <c r="J37">
         <v>800</v>
       </c>
       <c r="K37">
-        <v>96.85772414335457</v>
+        <v>95.24494196116532</v>
       </c>
       <c r="L37">
         <v>1000</v>
       </c>
       <c r="M37">
-        <v>140.8209215412257</v>
+        <v>140.7825105469454</v>
       </c>
       <c r="N37">
         <v>1200</v>
       </c>
       <c r="O37">
-        <v>191.2637009918784</v>
+        <v>190.5878830370267</v>
       </c>
       <c r="P37">
         <v>1400</v>
       </c>
       <c r="Q37">
-        <v>246.8300142106874</v>
+        <v>244.5303100446673</v>
       </c>
       <c r="R37">
         <v>1600</v>
       </c>
       <c r="S37">
-        <v>303.4442233435394</v>
+        <v>299.6465800310718</v>
       </c>
       <c r="T37">
         <v>1800</v>
       </c>
       <c r="U37">
-        <v>363.0690347215057</v>
+        <v>361.056040541366</v>
       </c>
       <c r="V37">
         <v>2000</v>
       </c>
       <c r="W37">
-        <v>422.6767979210438</v>
+        <v>420.509212051221</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3081,61 +3081,61 @@
         <v>200</v>
       </c>
       <c r="E38">
-        <v>9.218215529128184</v>
+        <v>9.220379130278854</v>
       </c>
       <c r="F38">
         <v>400</v>
       </c>
       <c r="G38">
-        <v>29.12737044669587</v>
+        <v>29.00869442529517</v>
       </c>
       <c r="H38">
         <v>600</v>
       </c>
       <c r="I38">
-        <v>58.42951048337464</v>
+        <v>58.30802278939077</v>
       </c>
       <c r="J38">
         <v>800</v>
       </c>
       <c r="K38">
-        <v>96.20164477266599</v>
+        <v>96.25852018313181</v>
       </c>
       <c r="L38">
         <v>1000</v>
       </c>
       <c r="M38">
-        <v>139.2587587163064</v>
+        <v>140.7921432922606</v>
       </c>
       <c r="N38">
         <v>1200</v>
       </c>
       <c r="O38">
-        <v>191.7378621989185</v>
+        <v>191.0366562904398</v>
       </c>
       <c r="P38">
         <v>1400</v>
       </c>
       <c r="Q38">
-        <v>242.7450908009844</v>
+        <v>244.3135255203958</v>
       </c>
       <c r="R38">
         <v>1600</v>
       </c>
       <c r="S38">
-        <v>301.7789735536722</v>
+        <v>303.3672382888017</v>
       </c>
       <c r="T38">
         <v>1800</v>
       </c>
       <c r="U38">
-        <v>361.9783139603171</v>
+        <v>361.4801810042583</v>
       </c>
       <c r="V38">
         <v>2000</v>
       </c>
       <c r="W38">
-        <v>421.4053658403642</v>
+        <v>420.2625812077434</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3152,61 +3152,61 @@
         <v>200</v>
       </c>
       <c r="E39">
-        <v>9.291281613020223</v>
+        <v>9.27271522092704</v>
       </c>
       <c r="F39">
         <v>400</v>
       </c>
       <c r="G39">
-        <v>28.96550387354688</v>
+        <v>29.03380548458723</v>
       </c>
       <c r="H39">
         <v>600</v>
       </c>
       <c r="I39">
-        <v>58.94363558156335</v>
+        <v>58.52410715141398</v>
       </c>
       <c r="J39">
         <v>800</v>
       </c>
       <c r="K39">
-        <v>96.01538250775998</v>
+        <v>96.58655535948226</v>
       </c>
       <c r="L39">
         <v>1000</v>
       </c>
       <c r="M39">
-        <v>140.8416928292045</v>
+        <v>140.1216705325901</v>
       </c>
       <c r="N39">
         <v>1200</v>
       </c>
       <c r="O39">
-        <v>190.3649927414331</v>
+        <v>192.585423415051</v>
       </c>
       <c r="P39">
         <v>1400</v>
       </c>
       <c r="Q39">
-        <v>244.30941887058</v>
+        <v>244.4893490881574</v>
       </c>
       <c r="R39">
         <v>1600</v>
       </c>
       <c r="S39">
-        <v>301.7898242066815</v>
+        <v>302.1515876249082</v>
       </c>
       <c r="T39">
         <v>1800</v>
       </c>
       <c r="U39">
-        <v>364.4103681969435</v>
+        <v>362.1700311196772</v>
       </c>
       <c r="V39">
         <v>2000</v>
       </c>
       <c r="W39">
-        <v>420.1450155356216</v>
+        <v>420.8228745144812</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3223,61 +3223,61 @@
         <v>200</v>
       </c>
       <c r="E40">
-        <v>9.263075672650597</v>
+        <v>9.226572644158097</v>
       </c>
       <c r="F40">
         <v>400</v>
       </c>
       <c r="G40">
-        <v>29.07715686359287</v>
+        <v>28.86015710791107</v>
       </c>
       <c r="H40">
         <v>600</v>
       </c>
       <c r="I40">
-        <v>58.18901202280715</v>
+        <v>58.56718639217344</v>
       </c>
       <c r="J40">
         <v>800</v>
       </c>
       <c r="K40">
-        <v>96.3350537979906</v>
+        <v>95.74370109533017</v>
       </c>
       <c r="L40">
         <v>1000</v>
       </c>
       <c r="M40">
-        <v>140.39147308363</v>
+        <v>141.5123842790065</v>
       </c>
       <c r="N40">
         <v>1200</v>
       </c>
       <c r="O40">
-        <v>191.7836297831579</v>
+        <v>190.0750350388564</v>
       </c>
       <c r="P40">
         <v>1400</v>
       </c>
       <c r="Q40">
-        <v>243.8038368246048</v>
+        <v>244.9359820251095</v>
       </c>
       <c r="R40">
         <v>1600</v>
       </c>
       <c r="S40">
-        <v>304.9665108390048</v>
+        <v>303.1004077710437</v>
       </c>
       <c r="T40">
         <v>1800</v>
       </c>
       <c r="U40">
-        <v>361.929453968503</v>
+        <v>361.9630870388</v>
       </c>
       <c r="V40">
         <v>2000</v>
       </c>
       <c r="W40">
-        <v>423.0697501594703</v>
+        <v>422.4720191262465</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3294,61 +3294,61 @@
         <v>200</v>
       </c>
       <c r="E41">
-        <v>9.236199854507804</v>
+        <v>9.238029434847784</v>
       </c>
       <c r="F41">
         <v>400</v>
       </c>
       <c r="G41">
-        <v>29.0245360200227</v>
+        <v>28.87601709107695</v>
       </c>
       <c r="H41">
         <v>600</v>
       </c>
       <c r="I41">
-        <v>58.39092057570508</v>
+        <v>58.04047184276245</v>
       </c>
       <c r="J41">
         <v>800</v>
       </c>
       <c r="K41">
-        <v>96.247524992297</v>
+        <v>95.72379798678224</v>
       </c>
       <c r="L41">
         <v>1000</v>
       </c>
       <c r="M41">
-        <v>140.3979608438324</v>
+        <v>140.1463464343742</v>
       </c>
       <c r="N41">
         <v>1200</v>
       </c>
       <c r="O41">
-        <v>190.3154659297471</v>
+        <v>190.0276239381708</v>
       </c>
       <c r="P41">
         <v>1400</v>
       </c>
       <c r="Q41">
-        <v>246.9778051275113</v>
+        <v>244.7374371431589</v>
       </c>
       <c r="R41">
         <v>1600</v>
       </c>
       <c r="S41">
-        <v>301.7578624529561</v>
+        <v>303.6817282822634</v>
       </c>
       <c r="T41">
         <v>1800</v>
       </c>
       <c r="U41">
-        <v>362.1985105676605</v>
+        <v>360.4156028733134</v>
       </c>
       <c r="V41">
         <v>2000</v>
       </c>
       <c r="W41">
-        <v>418.8454701511645</v>
+        <v>418.3808309588244</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3365,61 +3365,61 @@
         <v>200</v>
       </c>
       <c r="E42">
-        <v>9.234522491967095</v>
+        <v>9.241455498679569</v>
       </c>
       <c r="F42">
         <v>400</v>
       </c>
       <c r="G42">
-        <v>29.1635930846729</v>
+        <v>29.15010137974573</v>
       </c>
       <c r="H42">
         <v>600</v>
       </c>
       <c r="I42">
-        <v>58.05274923578914</v>
+        <v>58.20107238250889</v>
       </c>
       <c r="J42">
         <v>800</v>
       </c>
       <c r="K42">
-        <v>95.95514040819478</v>
+        <v>96.36059089099709</v>
       </c>
       <c r="L42">
         <v>1000</v>
       </c>
       <c r="M42">
-        <v>140.7606259799353</v>
+        <v>140.6592993329222</v>
       </c>
       <c r="N42">
         <v>1200</v>
       </c>
       <c r="O42">
-        <v>190.2220377856079</v>
+        <v>191.086991002302</v>
       </c>
       <c r="P42">
         <v>1400</v>
       </c>
       <c r="Q42">
-        <v>246.1750926063837</v>
+        <v>245.5001825033042</v>
       </c>
       <c r="R42">
         <v>1600</v>
       </c>
       <c r="S42">
-        <v>298.5293222615463</v>
+        <v>301.0040522850869</v>
       </c>
       <c r="T42">
         <v>1800</v>
       </c>
       <c r="U42">
-        <v>358.656273527946</v>
+        <v>360.4400232489361</v>
       </c>
       <c r="V42">
         <v>2000</v>
       </c>
       <c r="W42">
-        <v>419.0023878043247</v>
+        <v>418.311514448746</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3436,61 +3436,61 @@
         <v>200</v>
       </c>
       <c r="E43">
-        <v>9.198831891349169</v>
+        <v>9.268738535876318</v>
       </c>
       <c r="F43">
         <v>400</v>
       </c>
       <c r="G43">
-        <v>28.93667074406992</v>
+        <v>28.95966249915293</v>
       </c>
       <c r="H43">
         <v>600</v>
       </c>
       <c r="I43">
-        <v>58.74103785479755</v>
+        <v>58.55358135704849</v>
       </c>
       <c r="J43">
         <v>800</v>
       </c>
       <c r="K43">
-        <v>95.91910526019473</v>
+        <v>96.14504175293131</v>
       </c>
       <c r="L43">
         <v>1000</v>
       </c>
       <c r="M43">
-        <v>140.0252164807086</v>
+        <v>140.2983199367664</v>
       </c>
       <c r="N43">
         <v>1200</v>
       </c>
       <c r="O43">
-        <v>190.5516978759019</v>
+        <v>190.5104074650699</v>
       </c>
       <c r="P43">
         <v>1400</v>
       </c>
       <c r="Q43">
-        <v>244.8575356000059</v>
+        <v>245.1222497258467</v>
       </c>
       <c r="R43">
         <v>1600</v>
       </c>
       <c r="S43">
-        <v>300.364865569919</v>
+        <v>301.7243322841542</v>
       </c>
       <c r="T43">
         <v>1800</v>
       </c>
       <c r="U43">
-        <v>363.968463659801</v>
+        <v>360.6906293307611</v>
       </c>
       <c r="V43">
         <v>2000</v>
       </c>
       <c r="W43">
-        <v>419.9115530411818</v>
+        <v>419.9691949905335</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3507,61 +3507,61 @@
         <v>200</v>
       </c>
       <c r="E44">
-        <v>9.144707157814249</v>
+        <v>9.260924670552658</v>
       </c>
       <c r="F44">
         <v>400</v>
       </c>
       <c r="G44">
-        <v>29.00755694985694</v>
+        <v>29.30063889947029</v>
       </c>
       <c r="H44">
         <v>600</v>
       </c>
       <c r="I44">
-        <v>58.15744926047757</v>
+        <v>58.42124065734069</v>
       </c>
       <c r="J44">
         <v>800</v>
       </c>
       <c r="K44">
-        <v>95.80480533298964</v>
+        <v>96.04108526593149</v>
       </c>
       <c r="L44">
         <v>1000</v>
       </c>
       <c r="M44">
-        <v>140.7514592176167</v>
+        <v>141.1392883474107</v>
       </c>
       <c r="N44">
         <v>1200</v>
       </c>
       <c r="O44">
-        <v>189.4818334864595</v>
+        <v>190.5102809049609</v>
       </c>
       <c r="P44">
         <v>1400</v>
       </c>
       <c r="Q44">
-        <v>243.7609578554864</v>
+        <v>244.6286376326077</v>
       </c>
       <c r="R44">
         <v>1600</v>
       </c>
       <c r="S44">
-        <v>300.9997064865875</v>
+        <v>303.2885862036925</v>
       </c>
       <c r="T44">
         <v>1800</v>
       </c>
       <c r="U44">
-        <v>359.2672088361088</v>
+        <v>359.3174197581562</v>
       </c>
       <c r="V44">
         <v>2000</v>
       </c>
       <c r="W44">
-        <v>421.977072639057</v>
+        <v>421.8772154115189</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3578,61 +3578,61 @@
         <v>200</v>
       </c>
       <c r="E45">
-        <v>9.266012154784383</v>
+        <v>9.156454145984453</v>
       </c>
       <c r="F45">
         <v>400</v>
       </c>
       <c r="G45">
-        <v>28.96739356303943</v>
+        <v>29.2423498264734</v>
       </c>
       <c r="H45">
         <v>600</v>
       </c>
       <c r="I45">
-        <v>58.07628695315331</v>
+        <v>58.57312599233799</v>
       </c>
       <c r="J45">
         <v>800</v>
       </c>
       <c r="K45">
-        <v>95.58946126499471</v>
+        <v>95.81312988513187</v>
       </c>
       <c r="L45">
         <v>1000</v>
       </c>
       <c r="M45">
-        <v>141.5800331492348</v>
+        <v>141.3856332437044</v>
       </c>
       <c r="N45">
         <v>1200</v>
       </c>
       <c r="O45">
-        <v>192.1608421519537</v>
+        <v>190.0018624911251</v>
       </c>
       <c r="P45">
         <v>1400</v>
       </c>
       <c r="Q45">
-        <v>243.5529511701467</v>
+        <v>245.0385625569928</v>
       </c>
       <c r="R45">
         <v>1600</v>
       </c>
       <c r="S45">
-        <v>303.4157325612237</v>
+        <v>300.7355175842427</v>
       </c>
       <c r="T45">
         <v>1800</v>
       </c>
       <c r="U45">
-        <v>359.4163846584187</v>
+        <v>361.7420656651499</v>
       </c>
       <c r="V45">
         <v>2000</v>
       </c>
       <c r="W45">
-        <v>418.7056474901453</v>
+        <v>418.780579918214</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3649,61 +3649,61 @@
         <v>200</v>
       </c>
       <c r="E46">
-        <v>9.226368276845328</v>
+        <v>9.210747907095589</v>
       </c>
       <c r="F46">
         <v>400</v>
       </c>
       <c r="G46">
-        <v>28.98172269504044</v>
+        <v>29.12808574916966</v>
       </c>
       <c r="H46">
         <v>600</v>
       </c>
       <c r="I46">
-        <v>58.48385250239532</v>
+        <v>58.50488190233912</v>
       </c>
       <c r="J46">
         <v>800</v>
       </c>
       <c r="K46">
-        <v>96.50121314812769</v>
+        <v>96.55370451031455</v>
       </c>
       <c r="L46">
         <v>1000</v>
       </c>
       <c r="M46">
-        <v>139.8711928407072</v>
+        <v>140.7101196461819</v>
       </c>
       <c r="N46">
         <v>1200</v>
       </c>
       <c r="O46">
-        <v>192.3242580100203</v>
+        <v>191.9822617320798</v>
       </c>
       <c r="P46">
         <v>1400</v>
       </c>
       <c r="Q46">
-        <v>242.0279778039195</v>
+        <v>243.810013686501</v>
       </c>
       <c r="R46">
         <v>1600</v>
       </c>
       <c r="S46">
-        <v>302.2051443691684</v>
+        <v>301.6271071436564</v>
       </c>
       <c r="T46">
         <v>1800</v>
       </c>
       <c r="U46">
-        <v>361.5225537860475</v>
+        <v>362.9358205610803</v>
       </c>
       <c r="V46">
         <v>2000</v>
       </c>
       <c r="W46">
-        <v>419.4956030459365</v>
+        <v>420.7263542108541</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3720,61 +3720,61 @@
         <v>200</v>
       </c>
       <c r="E47">
-        <v>9.298110374927456</v>
+        <v>9.230537679718617</v>
       </c>
       <c r="F47">
         <v>400</v>
       </c>
       <c r="G47">
-        <v>29.04897517782821</v>
+        <v>29.17080023105855</v>
       </c>
       <c r="H47">
         <v>600</v>
       </c>
       <c r="I47">
-        <v>58.51297783471423</v>
+        <v>58.29724996360357</v>
       </c>
       <c r="J47">
         <v>800</v>
       </c>
       <c r="K47">
-        <v>96.38733807563584</v>
+        <v>95.7306240174676</v>
       </c>
       <c r="L47">
         <v>1000</v>
       </c>
       <c r="M47">
-        <v>141.2196286741648</v>
+        <v>140.3483238920941</v>
       </c>
       <c r="N47">
         <v>1200</v>
       </c>
       <c r="O47">
-        <v>191.0037559856191</v>
+        <v>190.5614652576669</v>
       </c>
       <c r="P47">
         <v>1400</v>
       </c>
       <c r="Q47">
-        <v>244.3047290977194</v>
+        <v>244.6111008943144</v>
       </c>
       <c r="R47">
         <v>1600</v>
       </c>
       <c r="S47">
-        <v>301.7819393328621</v>
+        <v>299.4523766932504</v>
       </c>
       <c r="T47">
         <v>1800</v>
       </c>
       <c r="U47">
-        <v>360.4660594234473</v>
+        <v>359.0707235959226</v>
       </c>
       <c r="V47">
         <v>2000</v>
       </c>
       <c r="W47">
-        <v>421.59583795512</v>
+        <v>417.8894332942547</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3791,61 +3791,61 @@
         <v>200</v>
       </c>
       <c r="E48">
-        <v>9.264948818331362</v>
+        <v>9.261194864468715</v>
       </c>
       <c r="F48">
         <v>400</v>
       </c>
       <c r="G48">
-        <v>29.06971397401342</v>
+        <v>29.11010931182409</v>
       </c>
       <c r="H48">
         <v>600</v>
       </c>
       <c r="I48">
-        <v>57.87172977292951</v>
+        <v>58.32911855523738</v>
       </c>
       <c r="J48">
         <v>800</v>
       </c>
       <c r="K48">
-        <v>96.48219230637309</v>
+        <v>96.63514460365391</v>
       </c>
       <c r="L48">
         <v>1000</v>
       </c>
       <c r="M48">
-        <v>140.5229183835837</v>
+        <v>140.7973474497534</v>
       </c>
       <c r="N48">
         <v>1200</v>
       </c>
       <c r="O48">
-        <v>189.2809560193376</v>
+        <v>190.7060714967421</v>
       </c>
       <c r="P48">
         <v>1400</v>
       </c>
       <c r="Q48">
-        <v>243.0890157335732</v>
+        <v>245.5557910239343</v>
       </c>
       <c r="R48">
         <v>1600</v>
       </c>
       <c r="S48">
-        <v>301.8544247436914</v>
+        <v>300.1236603513498</v>
       </c>
       <c r="T48">
         <v>1800</v>
       </c>
       <c r="U48">
-        <v>361.5912961751005</v>
+        <v>360.9245994699569</v>
       </c>
       <c r="V48">
         <v>2000</v>
       </c>
       <c r="W48">
-        <v>423.6765647210547</v>
+        <v>422.0221416974275</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3862,61 +3862,61 @@
         <v>200</v>
       </c>
       <c r="E49">
-        <v>9.270122875374579</v>
+        <v>9.259979805061633</v>
       </c>
       <c r="F49">
         <v>400</v>
       </c>
       <c r="G49">
-        <v>29.03691404007101</v>
+        <v>29.33552987429744</v>
       </c>
       <c r="H49">
         <v>600</v>
       </c>
       <c r="I49">
-        <v>58.5100423284821</v>
+        <v>57.63843569643245</v>
       </c>
       <c r="J49">
         <v>800</v>
       </c>
       <c r="K49">
-        <v>96.0807237270933</v>
+        <v>96.05818672570621</v>
       </c>
       <c r="L49">
         <v>1000</v>
       </c>
       <c r="M49">
-        <v>140.6132775473789</v>
+        <v>141.2010838181245</v>
       </c>
       <c r="N49">
         <v>1200</v>
       </c>
       <c r="O49">
-        <v>189.7833720513812</v>
+        <v>189.4234568584973</v>
       </c>
       <c r="P49">
         <v>1400</v>
       </c>
       <c r="Q49">
-        <v>243.2107437978513</v>
+        <v>243.4024394658753</v>
       </c>
       <c r="R49">
         <v>1600</v>
       </c>
       <c r="S49">
-        <v>300.1240273427337</v>
+        <v>301.6876774959406</v>
       </c>
       <c r="T49">
         <v>1800</v>
       </c>
       <c r="U49">
-        <v>360.3284777588083</v>
+        <v>359.5032926589169</v>
       </c>
       <c r="V49">
         <v>2000</v>
       </c>
       <c r="W49">
-        <v>422.1377292651857</v>
+        <v>420.0098908703082</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3933,61 +3933,61 @@
         <v>200</v>
       </c>
       <c r="E50">
-        <v>9.222352635678856</v>
+        <v>9.186755026695831</v>
       </c>
       <c r="F50">
         <v>400</v>
       </c>
       <c r="G50">
-        <v>28.93576261433591</v>
+        <v>28.81521822013571</v>
       </c>
       <c r="H50">
         <v>600</v>
       </c>
       <c r="I50">
-        <v>58.44106665628408</v>
+        <v>57.97219602920297</v>
       </c>
       <c r="J50">
         <v>800</v>
       </c>
       <c r="K50">
-        <v>96.641187458685</v>
+        <v>96.28995716349039</v>
       </c>
       <c r="L50">
         <v>1000</v>
       </c>
       <c r="M50">
-        <v>140.1953512639884</v>
+        <v>139.7954665608439</v>
       </c>
       <c r="N50">
         <v>1200</v>
       </c>
       <c r="O50">
-        <v>191.8078694589313</v>
+        <v>192.3541733766624</v>
       </c>
       <c r="P50">
         <v>1400</v>
       </c>
       <c r="Q50">
-        <v>245.0229613748407</v>
+        <v>243.6769182428262</v>
       </c>
       <c r="R50">
         <v>1600</v>
       </c>
       <c r="S50">
-        <v>301.7276808984141</v>
+        <v>302.2293982145355</v>
       </c>
       <c r="T50">
         <v>1800</v>
       </c>
       <c r="U50">
-        <v>357.6490988311568</v>
+        <v>359.0086583175498</v>
       </c>
       <c r="V50">
         <v>2000</v>
       </c>
       <c r="W50">
-        <v>420.39179549024</v>
+        <v>421.6126336115988</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4004,61 +4004,61 @@
         <v>200</v>
       </c>
       <c r="E51">
-        <v>9.256207998960818</v>
+        <v>9.256889297979271</v>
       </c>
       <c r="F51">
         <v>400</v>
       </c>
       <c r="G51">
-        <v>28.98612356868944</v>
+        <v>29.23415346046911</v>
       </c>
       <c r="H51">
         <v>600</v>
       </c>
       <c r="I51">
-        <v>58.5833021009317</v>
+        <v>58.31244904715528</v>
       </c>
       <c r="J51">
         <v>800</v>
       </c>
       <c r="K51">
-        <v>95.31011132801822</v>
+        <v>96.06390234069718</v>
       </c>
       <c r="L51">
         <v>1000</v>
       </c>
       <c r="M51">
-        <v>140.3765800912787</v>
+        <v>141.2553944791885</v>
       </c>
       <c r="N51">
         <v>1200</v>
       </c>
       <c r="O51">
-        <v>190.8276836223971</v>
+        <v>190.2898843544083</v>
       </c>
       <c r="P51">
         <v>1400</v>
       </c>
       <c r="Q51">
-        <v>243.8101539763337</v>
+        <v>245.0683161663657</v>
       </c>
       <c r="R51">
         <v>1600</v>
       </c>
       <c r="S51">
-        <v>301.9577115394237</v>
+        <v>301.6190291745458</v>
       </c>
       <c r="T51">
         <v>1800</v>
       </c>
       <c r="U51">
-        <v>361.4620157393492</v>
+        <v>360.7122543219834</v>
       </c>
       <c r="V51">
         <v>2000</v>
       </c>
       <c r="W51">
-        <v>424.1192565966701</v>
+        <v>416.4362215102881</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4075,61 +4075,61 @@
         <v>200</v>
       </c>
       <c r="E52">
-        <v>9.291198324121208</v>
+        <v>9.196448349294885</v>
       </c>
       <c r="F52">
         <v>400</v>
       </c>
       <c r="G52">
-        <v>29.15476915812943</v>
+        <v>28.8970117296407</v>
       </c>
       <c r="H52">
         <v>600</v>
       </c>
       <c r="I52">
-        <v>58.03705899609982</v>
+        <v>58.0887428622223</v>
       </c>
       <c r="J52">
         <v>800</v>
       </c>
       <c r="K52">
-        <v>96.31027106826413</v>
+        <v>96.30677801395336</v>
       </c>
       <c r="L52">
         <v>1000</v>
       </c>
       <c r="M52">
-        <v>140.41972810442</v>
+        <v>140.6000234750978</v>
       </c>
       <c r="N52">
         <v>1200</v>
       </c>
       <c r="O52">
-        <v>190.454365332374</v>
+        <v>191.2360205262763</v>
       </c>
       <c r="P52">
         <v>1400</v>
       </c>
       <c r="Q52">
-        <v>244.0631997706139</v>
+        <v>245.4216536386505</v>
       </c>
       <c r="R52">
         <v>1600</v>
       </c>
       <c r="S52">
-        <v>302.0857103825324</v>
+        <v>301.3196719982606</v>
       </c>
       <c r="T52">
         <v>1800</v>
       </c>
       <c r="U52">
-        <v>357.8500904243219</v>
+        <v>361.6282352852811</v>
       </c>
       <c r="V52">
         <v>2000</v>
       </c>
       <c r="W52">
-        <v>420.2113819757917</v>
+        <v>421.0912430429126</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4146,61 +4146,61 @@
         <v>200</v>
       </c>
       <c r="E53">
-        <v>9.300103907364013</v>
+        <v>9.230347472821718</v>
       </c>
       <c r="F53">
         <v>400</v>
       </c>
       <c r="G53">
-        <v>29.09410175994375</v>
+        <v>29.03949284909157</v>
       </c>
       <c r="H53">
         <v>600</v>
       </c>
       <c r="I53">
-        <v>58.7739116311332</v>
+        <v>58.51482923998771</v>
       </c>
       <c r="J53">
         <v>800</v>
       </c>
       <c r="K53">
-        <v>96.26663761047612</v>
+        <v>95.37917560603246</v>
       </c>
       <c r="L53">
         <v>1000</v>
       </c>
       <c r="M53">
-        <v>140.7146087393452</v>
+        <v>141.5845631792064</v>
       </c>
       <c r="N53">
         <v>1200</v>
       </c>
       <c r="O53">
-        <v>190.772939481684</v>
+        <v>189.6483399827711</v>
       </c>
       <c r="P53">
         <v>1400</v>
       </c>
       <c r="Q53">
-        <v>243.8470823651516</v>
+        <v>245.2451812249687</v>
       </c>
       <c r="R53">
         <v>1600</v>
       </c>
       <c r="S53">
-        <v>301.3703920094894</v>
+        <v>301.9669788738194</v>
       </c>
       <c r="T53">
         <v>1800</v>
       </c>
       <c r="U53">
-        <v>360.246768524142</v>
+        <v>361.5529636651124</v>
       </c>
       <c r="V53">
         <v>2000</v>
       </c>
       <c r="W53">
-        <v>420.2480156622508</v>
+        <v>418.8510062064616</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4217,61 +4217,61 @@
         <v>200</v>
       </c>
       <c r="E54">
-        <v>9.240764696955704</v>
+        <v>9.280761386222213</v>
       </c>
       <c r="F54">
         <v>400</v>
       </c>
       <c r="G54">
-        <v>28.93832660987069</v>
+        <v>29.14891323738024</v>
       </c>
       <c r="H54">
         <v>600</v>
       </c>
       <c r="I54">
-        <v>58.60080763819818</v>
+        <v>58.03347413746282</v>
       </c>
       <c r="J54">
         <v>800</v>
       </c>
       <c r="K54">
-        <v>96.298445640358</v>
+        <v>95.86318309662981</v>
       </c>
       <c r="L54">
         <v>1000</v>
       </c>
       <c r="M54">
-        <v>140.9205855484</v>
+        <v>141.2585827457268</v>
       </c>
       <c r="N54">
         <v>1200</v>
       </c>
       <c r="O54">
-        <v>190.4286258717783</v>
+        <v>190.3742448195383</v>
       </c>
       <c r="P54">
         <v>1400</v>
       </c>
       <c r="Q54">
-        <v>243.472845652561</v>
+        <v>244.8170137758829</v>
       </c>
       <c r="R54">
         <v>1600</v>
       </c>
       <c r="S54">
-        <v>301.3981206374141</v>
+        <v>304.0191830864647</v>
       </c>
       <c r="T54">
         <v>1800</v>
       </c>
       <c r="U54">
-        <v>359.5896928992846</v>
+        <v>359.1372924250473</v>
       </c>
       <c r="V54">
         <v>2000</v>
       </c>
       <c r="W54">
-        <v>418.6346310364167</v>
+        <v>419.6456753503124</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4288,61 +4288,61 @@
         <v>200</v>
       </c>
       <c r="E55">
-        <v>9.237925960257918</v>
+        <v>9.27613654429336</v>
       </c>
       <c r="F55">
         <v>400</v>
       </c>
       <c r="G55">
-        <v>29.22373154779584</v>
+        <v>28.93933057198709</v>
       </c>
       <c r="H55">
         <v>600</v>
       </c>
       <c r="I55">
-        <v>58.27372115308325</v>
+        <v>58.59706995963583</v>
       </c>
       <c r="J55">
         <v>800</v>
       </c>
       <c r="K55">
-        <v>95.85232397348163</v>
+        <v>96.13529742212521</v>
       </c>
       <c r="L55">
         <v>1000</v>
       </c>
       <c r="M55">
-        <v>140.4234072726301</v>
+        <v>139.1177308469069</v>
       </c>
       <c r="N55">
         <v>1200</v>
       </c>
       <c r="O55">
-        <v>190.8519274642907</v>
+        <v>191.0293266854852</v>
       </c>
       <c r="P55">
         <v>1400</v>
       </c>
       <c r="Q55">
-        <v>244.9579569123808</v>
+        <v>247.1389029637199</v>
       </c>
       <c r="R55">
         <v>1600</v>
       </c>
       <c r="S55">
-        <v>302.8055311384169</v>
+        <v>304.0603955396942</v>
       </c>
       <c r="T55">
         <v>1800</v>
       </c>
       <c r="U55">
-        <v>360.5225649185424</v>
+        <v>360.6285204173229</v>
       </c>
       <c r="V55">
         <v>2000</v>
       </c>
       <c r="W55">
-        <v>421.2148587445637</v>
+        <v>419.4568421945459</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4359,61 +4359,61 @@
         <v>200</v>
       </c>
       <c r="E56">
-        <v>9.282393653961337</v>
+        <v>9.226422500367564</v>
       </c>
       <c r="F56">
         <v>400</v>
       </c>
       <c r="G56">
-        <v>29.25511218703253</v>
+        <v>29.16847761439181</v>
       </c>
       <c r="H56">
         <v>600</v>
       </c>
       <c r="I56">
-        <v>58.28743008912153</v>
+        <v>58.72796662641414</v>
       </c>
       <c r="J56">
         <v>800</v>
       </c>
       <c r="K56">
-        <v>96.05234984315398</v>
+        <v>96.25610002815657</v>
       </c>
       <c r="L56">
         <v>1000</v>
       </c>
       <c r="M56">
-        <v>140.4745752501371</v>
+        <v>141.5168647222878</v>
       </c>
       <c r="N56">
         <v>1200</v>
       </c>
       <c r="O56">
-        <v>191.074909314044</v>
+        <v>190.3071341361035</v>
       </c>
       <c r="P56">
         <v>1400</v>
       </c>
       <c r="Q56">
-        <v>246.1509496699776</v>
+        <v>245.8089868404641</v>
       </c>
       <c r="R56">
         <v>1600</v>
       </c>
       <c r="S56">
-        <v>300.6737916304701</v>
+        <v>300.5667704913357</v>
       </c>
       <c r="T56">
         <v>1800</v>
       </c>
       <c r="U56">
-        <v>361.762954429787</v>
+        <v>360.7261413902519</v>
       </c>
       <c r="V56">
         <v>2000</v>
       </c>
       <c r="W56">
-        <v>421.7619218402943</v>
+        <v>420.8417136612098</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4430,61 +4430,61 @@
         <v>200</v>
       </c>
       <c r="E57">
-        <v>9.252996781876831</v>
+        <v>9.19725426499625</v>
       </c>
       <c r="F57">
         <v>400</v>
       </c>
       <c r="G57">
-        <v>28.83865211123114</v>
+        <v>28.98000898782162</v>
       </c>
       <c r="H57">
         <v>600</v>
       </c>
       <c r="I57">
-        <v>58.69699105951356</v>
+        <v>58.71819696086497</v>
       </c>
       <c r="J57">
         <v>800</v>
       </c>
       <c r="K57">
-        <v>95.86759723396449</v>
+        <v>95.05543500520579</v>
       </c>
       <c r="L57">
         <v>1000</v>
       </c>
       <c r="M57">
-        <v>141.2812887526209</v>
+        <v>141.043659013729</v>
       </c>
       <c r="N57">
         <v>1200</v>
       </c>
       <c r="O57">
-        <v>190.8439522028449</v>
+        <v>190.9192198233089</v>
       </c>
       <c r="P57">
         <v>1400</v>
       </c>
       <c r="Q57">
-        <v>244.0627844589706</v>
+        <v>245.1410510970643</v>
       </c>
       <c r="R57">
         <v>1600</v>
       </c>
       <c r="S57">
-        <v>300.8045337165413</v>
+        <v>301.383793550457</v>
       </c>
       <c r="T57">
         <v>1800</v>
       </c>
       <c r="U57">
-        <v>359.9786341147046</v>
+        <v>361.5199559005013</v>
       </c>
       <c r="V57">
         <v>2000</v>
       </c>
       <c r="W57">
-        <v>420.5796979061882</v>
+        <v>418.0041883533826</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4501,61 +4501,61 @@
         <v>200</v>
       </c>
       <c r="E58">
-        <v>9.328655970380332</v>
+        <v>9.236668859548629</v>
       </c>
       <c r="F58">
         <v>400</v>
       </c>
       <c r="G58">
-        <v>28.93856436447713</v>
+        <v>29.02256344158277</v>
       </c>
       <c r="H58">
         <v>600</v>
       </c>
       <c r="I58">
-        <v>58.16953474331519</v>
+        <v>58.53517195147142</v>
       </c>
       <c r="J58">
         <v>800</v>
       </c>
       <c r="K58">
-        <v>96.13766113999861</v>
+        <v>95.77126867502487</v>
       </c>
       <c r="L58">
         <v>1000</v>
       </c>
       <c r="M58">
-        <v>141.8537765833165</v>
+        <v>140.8691958911524</v>
       </c>
       <c r="N58">
         <v>1200</v>
       </c>
       <c r="O58">
-        <v>191.2459932031994</v>
+        <v>191.9309150129558</v>
       </c>
       <c r="P58">
         <v>1400</v>
       </c>
       <c r="Q58">
-        <v>243.887337836975</v>
+        <v>243.6681703088113</v>
       </c>
       <c r="R58">
         <v>1600</v>
       </c>
       <c r="S58">
-        <v>303.0470482057742</v>
+        <v>301.5202844862808</v>
       </c>
       <c r="T58">
         <v>1800</v>
       </c>
       <c r="U58">
-        <v>361.7978277697719</v>
+        <v>360.1505818509027</v>
       </c>
       <c r="V58">
         <v>2000</v>
       </c>
       <c r="W58">
-        <v>419.6220818058887</v>
+        <v>422.2601984356455</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4572,61 +4572,61 @@
         <v>200</v>
       </c>
       <c r="E59">
-        <v>9.303638151134379</v>
+        <v>9.218906860697677</v>
       </c>
       <c r="F59">
         <v>400</v>
       </c>
       <c r="G59">
-        <v>29.2676762950471</v>
+        <v>29.17054374750236</v>
       </c>
       <c r="H59">
         <v>600</v>
       </c>
       <c r="I59">
-        <v>58.10410761802373</v>
+        <v>58.20250574623351</v>
       </c>
       <c r="J59">
         <v>800</v>
       </c>
       <c r="K59">
-        <v>96.38853823325844</v>
+        <v>96.52066027019164</v>
       </c>
       <c r="L59">
         <v>1000</v>
       </c>
       <c r="M59">
-        <v>140.0995212360711</v>
+        <v>139.8534830479815</v>
       </c>
       <c r="N59">
         <v>1200</v>
       </c>
       <c r="O59">
-        <v>192.1975963809467</v>
+        <v>190.2715885160175</v>
       </c>
       <c r="P59">
         <v>1400</v>
       </c>
       <c r="Q59">
-        <v>244.5895949411468</v>
+        <v>244.0622227511248</v>
       </c>
       <c r="R59">
         <v>1600</v>
       </c>
       <c r="S59">
-        <v>303.6619401620315</v>
+        <v>303.484704027427</v>
       </c>
       <c r="T59">
         <v>1800</v>
       </c>
       <c r="U59">
-        <v>361.1238463491356</v>
+        <v>359.6557767325728</v>
       </c>
       <c r="V59">
         <v>2000</v>
       </c>
       <c r="W59">
-        <v>415.0861390596032</v>
+        <v>420.1682122179463</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4643,61 +4643,61 @@
         <v>200</v>
       </c>
       <c r="E60">
-        <v>9.251957301812025</v>
+        <v>9.232078537701268</v>
       </c>
       <c r="F60">
         <v>400</v>
       </c>
       <c r="G60">
-        <v>29.02377682558175</v>
+        <v>29.03918180292954</v>
       </c>
       <c r="H60">
         <v>600</v>
       </c>
       <c r="I60">
-        <v>58.15274839428975</v>
+        <v>58.52101213419808</v>
       </c>
       <c r="J60">
         <v>800</v>
       </c>
       <c r="K60">
-        <v>96.59730274567708</v>
+        <v>96.46907838694486</v>
       </c>
       <c r="L60">
         <v>1000</v>
       </c>
       <c r="M60">
-        <v>141.104360370492</v>
+        <v>140.9609792649126</v>
       </c>
       <c r="N60">
         <v>1200</v>
       </c>
       <c r="O60">
-        <v>191.6098958894026</v>
+        <v>190.4987364998372</v>
       </c>
       <c r="P60">
         <v>1400</v>
       </c>
       <c r="Q60">
-        <v>245.5655253809178</v>
+        <v>244.1043031702935</v>
       </c>
       <c r="R60">
         <v>1600</v>
       </c>
       <c r="S60">
-        <v>301.2762499597761</v>
+        <v>302.193668273799</v>
       </c>
       <c r="T60">
         <v>1800</v>
       </c>
       <c r="U60">
-        <v>359.7240565807937</v>
+        <v>359.9056292577607</v>
       </c>
       <c r="V60">
         <v>2000</v>
       </c>
       <c r="W60">
-        <v>421.3230411001272</v>
+        <v>419.6193705327348</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4714,61 +4714,61 @@
         <v>200</v>
       </c>
       <c r="E61">
-        <v>9.250318849310201</v>
+        <v>9.230320787008353</v>
       </c>
       <c r="F61">
         <v>400</v>
       </c>
       <c r="G61">
-        <v>29.19506324747668</v>
+        <v>29.05037727161792</v>
       </c>
       <c r="H61">
         <v>600</v>
       </c>
       <c r="I61">
-        <v>58.29410475509068</v>
+        <v>58.48633682693769</v>
       </c>
       <c r="J61">
         <v>800</v>
       </c>
       <c r="K61">
-        <v>95.86237524263399</v>
+        <v>95.46214216237473</v>
       </c>
       <c r="L61">
         <v>1000</v>
       </c>
       <c r="M61">
-        <v>140.5052849840999</v>
+        <v>139.5127141746677</v>
       </c>
       <c r="N61">
         <v>1200</v>
       </c>
       <c r="O61">
-        <v>190.0727501606297</v>
+        <v>193.0531350283101</v>
       </c>
       <c r="P61">
         <v>1400</v>
       </c>
       <c r="Q61">
-        <v>244.1005280371661</v>
+        <v>246.0643761142679</v>
       </c>
       <c r="R61">
         <v>1600</v>
       </c>
       <c r="S61">
-        <v>302.7036383322159</v>
+        <v>303.5884036449814</v>
       </c>
       <c r="T61">
         <v>1800</v>
       </c>
       <c r="U61">
-        <v>361.2876846439525</v>
+        <v>361.7068933182454</v>
       </c>
       <c r="V61">
         <v>2000</v>
       </c>
       <c r="W61">
-        <v>422.9069567997654</v>
+        <v>421.874675946825</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4785,61 +4785,61 @@
         <v>200</v>
       </c>
       <c r="E62">
-        <v>9.203694319365361</v>
+        <v>9.241796717969654</v>
       </c>
       <c r="F62">
         <v>400</v>
       </c>
       <c r="G62">
-        <v>29.02444177811385</v>
+        <v>29.18777986398987</v>
       </c>
       <c r="H62">
         <v>600</v>
       </c>
       <c r="I62">
-        <v>58.43280632365122</v>
+        <v>58.50992987492525</v>
       </c>
       <c r="J62">
         <v>800</v>
       </c>
       <c r="K62">
-        <v>96.80515981408799</v>
+        <v>96.23870511519229</v>
       </c>
       <c r="L62">
         <v>1000</v>
       </c>
       <c r="M62">
-        <v>141.1226893723635</v>
+        <v>141.6174524612246</v>
       </c>
       <c r="N62">
         <v>1200</v>
       </c>
       <c r="O62">
-        <v>190.8062890744038</v>
+        <v>189.3394340194463</v>
       </c>
       <c r="P62">
         <v>1400</v>
       </c>
       <c r="Q62">
-        <v>246.193640947493</v>
+        <v>244.2698892306155</v>
       </c>
       <c r="R62">
         <v>1600</v>
       </c>
       <c r="S62">
-        <v>302.0253884340271</v>
+        <v>301.7729717048555</v>
       </c>
       <c r="T62">
         <v>1800</v>
       </c>
       <c r="U62">
-        <v>360.1122724027766</v>
+        <v>361.0910751822994</v>
       </c>
       <c r="V62">
         <v>2000</v>
       </c>
       <c r="W62">
-        <v>420.5441877132824</v>
+        <v>418.9791073964373</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4856,61 +4856,61 @@
         <v>200</v>
       </c>
       <c r="E63">
-        <v>9.246910330969268</v>
+        <v>9.21615121446891</v>
       </c>
       <c r="F63">
         <v>400</v>
       </c>
       <c r="G63">
-        <v>28.85923697560079</v>
+        <v>29.01127195174385</v>
       </c>
       <c r="H63">
         <v>600</v>
       </c>
       <c r="I63">
-        <v>58.75651327587484</v>
+        <v>58.74176269966205</v>
       </c>
       <c r="J63">
         <v>800</v>
       </c>
       <c r="K63">
-        <v>96.68123852540141</v>
+        <v>97.04907015293824</v>
       </c>
       <c r="L63">
         <v>1000</v>
       </c>
       <c r="M63">
-        <v>140.2778644980128</v>
+        <v>139.8549720627433</v>
       </c>
       <c r="N63">
         <v>1200</v>
       </c>
       <c r="O63">
-        <v>191.4192649284296</v>
+        <v>189.4908362955494</v>
       </c>
       <c r="P63">
         <v>1400</v>
       </c>
       <c r="Q63">
-        <v>245.7118976112155</v>
+        <v>243.6145481381496</v>
       </c>
       <c r="R63">
         <v>1600</v>
       </c>
       <c r="S63">
-        <v>299.5171917702401</v>
+        <v>301.0968478491062</v>
       </c>
       <c r="T63">
         <v>1800</v>
       </c>
       <c r="U63">
-        <v>359.7145100160769</v>
+        <v>361.3240460905068</v>
       </c>
       <c r="V63">
         <v>2000</v>
       </c>
       <c r="W63">
-        <v>422.3398096090523</v>
+        <v>419.3944057995293</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4927,61 +4927,61 @@
         <v>200</v>
       </c>
       <c r="E64">
-        <v>9.226730283284171</v>
+        <v>9.192425792608718</v>
       </c>
       <c r="F64">
         <v>400</v>
       </c>
       <c r="G64">
-        <v>29.03734301699429</v>
+        <v>29.20376419949821</v>
       </c>
       <c r="H64">
         <v>600</v>
       </c>
       <c r="I64">
-        <v>58.27470872380211</v>
+        <v>58.05513700886186</v>
       </c>
       <c r="J64">
         <v>800</v>
       </c>
       <c r="K64">
-        <v>96.50391287997762</v>
+        <v>95.44836372325885</v>
       </c>
       <c r="L64">
         <v>1000</v>
       </c>
       <c r="M64">
-        <v>140.1199927067332</v>
+        <v>141.1471170706563</v>
       </c>
       <c r="N64">
         <v>1200</v>
       </c>
       <c r="O64">
-        <v>192.2602152766718</v>
+        <v>189.97529730834</v>
       </c>
       <c r="P64">
         <v>1400</v>
       </c>
       <c r="Q64">
-        <v>242.7777391463376</v>
+        <v>245.4512176201957</v>
       </c>
       <c r="R64">
         <v>1600</v>
       </c>
       <c r="S64">
-        <v>302.5923562123726</v>
+        <v>302.4077844423998</v>
       </c>
       <c r="T64">
         <v>1800</v>
       </c>
       <c r="U64">
-        <v>356.5154743247202</v>
+        <v>360.862112292522</v>
       </c>
       <c r="V64">
         <v>2000</v>
       </c>
       <c r="W64">
-        <v>422.5263771911982</v>
+        <v>415.6160785662736</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -4998,61 +4998,61 @@
         <v>200</v>
       </c>
       <c r="E65">
-        <v>9.249528180975815</v>
+        <v>9.093180486913875</v>
       </c>
       <c r="F65">
         <v>400</v>
       </c>
       <c r="G65">
-        <v>29.17908463761765</v>
+        <v>29.0606866034695</v>
       </c>
       <c r="H65">
         <v>600</v>
       </c>
       <c r="I65">
-        <v>58.28503681726869</v>
+        <v>58.37828749201221</v>
       </c>
       <c r="J65">
         <v>800</v>
       </c>
       <c r="K65">
-        <v>96.22293952659331</v>
+        <v>95.85549445380643</v>
       </c>
       <c r="L65">
         <v>1000</v>
       </c>
       <c r="M65">
-        <v>142.2966943910368</v>
+        <v>140.9321359495752</v>
       </c>
       <c r="N65">
         <v>1200</v>
       </c>
       <c r="O65">
-        <v>191.1096322263257</v>
+        <v>190.2899638987465</v>
       </c>
       <c r="P65">
         <v>1400</v>
       </c>
       <c r="Q65">
-        <v>243.9243557595469</v>
+        <v>243.9940094806053</v>
       </c>
       <c r="R65">
         <v>1600</v>
       </c>
       <c r="S65">
-        <v>302.0214437457028</v>
+        <v>301.276859237235</v>
       </c>
       <c r="T65">
         <v>1800</v>
       </c>
       <c r="U65">
-        <v>361.4374313884311</v>
+        <v>361.9553536789653</v>
       </c>
       <c r="V65">
         <v>2000</v>
       </c>
       <c r="W65">
-        <v>424.3150226334421</v>
+        <v>420.4019352124046</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5069,61 +5069,61 @@
         <v>200</v>
       </c>
       <c r="E66">
-        <v>9.31392331939465</v>
+        <v>9.298971994457395</v>
       </c>
       <c r="F66">
         <v>400</v>
       </c>
       <c r="G66">
-        <v>29.04210785965799</v>
+        <v>29.31007934379306</v>
       </c>
       <c r="H66">
         <v>600</v>
       </c>
       <c r="I66">
-        <v>58.4544529695665</v>
+        <v>58.68358664424894</v>
       </c>
       <c r="J66">
         <v>800</v>
       </c>
       <c r="K66">
-        <v>96.484857392991</v>
+        <v>95.52779058142715</v>
       </c>
       <c r="L66">
         <v>1000</v>
       </c>
       <c r="M66">
-        <v>139.9178560097917</v>
+        <v>140.2297257033183</v>
       </c>
       <c r="N66">
         <v>1200</v>
       </c>
       <c r="O66">
-        <v>190.1909164540891</v>
+        <v>188.9486503688002</v>
       </c>
       <c r="P66">
         <v>1400</v>
       </c>
       <c r="Q66">
-        <v>245.2927759598639</v>
+        <v>243.684069192875</v>
       </c>
       <c r="R66">
         <v>1600</v>
       </c>
       <c r="S66">
-        <v>301.5305863551998</v>
+        <v>299.5144609942576</v>
       </c>
       <c r="T66">
         <v>1800</v>
       </c>
       <c r="U66">
-        <v>358.846904292465</v>
+        <v>361.9168612778473</v>
       </c>
       <c r="V66">
         <v>2000</v>
       </c>
       <c r="W66">
-        <v>422.9126594989356</v>
+        <v>421.3391788022884</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5140,61 +5140,61 @@
         <v>200</v>
       </c>
       <c r="E67">
-        <v>9.198173630943819</v>
+        <v>9.221623112261906</v>
       </c>
       <c r="F67">
         <v>400</v>
       </c>
       <c r="G67">
-        <v>29.10677516245097</v>
+        <v>28.91962019209492</v>
       </c>
       <c r="H67">
         <v>600</v>
       </c>
       <c r="I67">
-        <v>58.216794111737</v>
+        <v>58.37108814062603</v>
       </c>
       <c r="J67">
         <v>800</v>
       </c>
       <c r="K67">
-        <v>96.12589240897741</v>
+        <v>95.8628675680977</v>
       </c>
       <c r="L67">
         <v>1000</v>
       </c>
       <c r="M67">
-        <v>139.9700638508824</v>
+        <v>141.8314463065133</v>
       </c>
       <c r="N67">
         <v>1200</v>
       </c>
       <c r="O67">
-        <v>190.1297995434255</v>
+        <v>191.3494723560954</v>
       </c>
       <c r="P67">
         <v>1400</v>
       </c>
       <c r="Q67">
-        <v>245.9600704752706</v>
+        <v>243.9735208648372</v>
       </c>
       <c r="R67">
         <v>1600</v>
       </c>
       <c r="S67">
-        <v>302.2658228962975</v>
+        <v>304.0758197479256</v>
       </c>
       <c r="T67">
         <v>1800</v>
       </c>
       <c r="U67">
-        <v>358.4555382651878</v>
+        <v>362.4619982266799</v>
       </c>
       <c r="V67">
         <v>2000</v>
       </c>
       <c r="W67">
-        <v>419.1895662102841</v>
+        <v>418.7784413757163</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5211,61 +5211,61 @@
         <v>200</v>
       </c>
       <c r="E68">
-        <v>9.241096013556669</v>
+        <v>9.335462337390966</v>
       </c>
       <c r="F68">
         <v>400</v>
       </c>
       <c r="G68">
-        <v>29.11915225665666</v>
+        <v>29.31192493680627</v>
       </c>
       <c r="H68">
         <v>600</v>
       </c>
       <c r="I68">
-        <v>58.49379023674513</v>
+        <v>58.5816056499894</v>
       </c>
       <c r="J68">
         <v>800</v>
       </c>
       <c r="K68">
-        <v>96.88043455425385</v>
+        <v>96.22596537112433</v>
       </c>
       <c r="L68">
         <v>1000</v>
       </c>
       <c r="M68">
-        <v>142.5066984972833</v>
+        <v>140.7794269014173</v>
       </c>
       <c r="N68">
         <v>1200</v>
       </c>
       <c r="O68">
-        <v>192.1555278636919</v>
+        <v>191.7821257206906</v>
       </c>
       <c r="P68">
         <v>1400</v>
       </c>
       <c r="Q68">
-        <v>245.8684205161489</v>
+        <v>245.2097882816415</v>
       </c>
       <c r="R68">
         <v>1600</v>
       </c>
       <c r="S68">
-        <v>302.425259740243</v>
+        <v>303.0520733616179</v>
       </c>
       <c r="T68">
         <v>1800</v>
       </c>
       <c r="U68">
-        <v>361.1895888285563</v>
+        <v>361.7400583858729</v>
       </c>
       <c r="V68">
         <v>2000</v>
       </c>
       <c r="W68">
-        <v>417.053800788396</v>
+        <v>423.2522970938406</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5282,61 +5282,61 @@
         <v>200</v>
       </c>
       <c r="E69">
-        <v>9.242530473292698</v>
+        <v>9.286003940853337</v>
       </c>
       <c r="F69">
         <v>400</v>
       </c>
       <c r="G69">
-        <v>29.15440914098286</v>
+        <v>28.94712781323258</v>
       </c>
       <c r="H69">
         <v>600</v>
       </c>
       <c r="I69">
-        <v>58.22232268996705</v>
+        <v>58.66107785526392</v>
       </c>
       <c r="J69">
         <v>800</v>
       </c>
       <c r="K69">
-        <v>96.91719587961427</v>
+        <v>96.08163371789063</v>
       </c>
       <c r="L69">
         <v>1000</v>
       </c>
       <c r="M69">
-        <v>140.9674955070533</v>
+        <v>141.132413016643</v>
       </c>
       <c r="N69">
         <v>1200</v>
       </c>
       <c r="O69">
-        <v>190.993338713529</v>
+        <v>191.2459127508121</v>
       </c>
       <c r="P69">
         <v>1400</v>
       </c>
       <c r="Q69">
-        <v>244.9632180021671</v>
+        <v>244.766601586515</v>
       </c>
       <c r="R69">
         <v>1600</v>
       </c>
       <c r="S69">
-        <v>303.5697099333825</v>
+        <v>299.5091485713008</v>
       </c>
       <c r="T69">
         <v>1800</v>
       </c>
       <c r="U69">
-        <v>360.2445238423373</v>
+        <v>362.9088848906371</v>
       </c>
       <c r="V69">
         <v>2000</v>
       </c>
       <c r="W69">
-        <v>420.6337393659462</v>
+        <v>422.7259259907195</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5353,61 +5353,61 @@
         <v>200</v>
       </c>
       <c r="E70">
-        <v>9.204599458622104</v>
+        <v>9.3009255004115</v>
       </c>
       <c r="F70">
         <v>400</v>
       </c>
       <c r="G70">
-        <v>29.09316854743909</v>
+        <v>29.01107433021463</v>
       </c>
       <c r="H70">
         <v>600</v>
       </c>
       <c r="I70">
-        <v>58.46385127814025</v>
+        <v>58.41729440979501</v>
       </c>
       <c r="J70">
         <v>800</v>
       </c>
       <c r="K70">
-        <v>95.98247651370426</v>
+        <v>96.25171240373632</v>
       </c>
       <c r="L70">
         <v>1000</v>
       </c>
       <c r="M70">
-        <v>140.3488400751341</v>
+        <v>140.1008165723972</v>
       </c>
       <c r="N70">
         <v>1200</v>
       </c>
       <c r="O70">
-        <v>189.3139297485559</v>
+        <v>189.5884438776507</v>
       </c>
       <c r="P70">
         <v>1400</v>
       </c>
       <c r="Q70">
-        <v>245.8969224353077</v>
+        <v>243.9807568322051</v>
       </c>
       <c r="R70">
         <v>1600</v>
       </c>
       <c r="S70">
-        <v>300.1600808544748</v>
+        <v>299.756182604459</v>
       </c>
       <c r="T70">
         <v>1800</v>
       </c>
       <c r="U70">
-        <v>358.7219908312176</v>
+        <v>362.1680567950785</v>
       </c>
       <c r="V70">
         <v>2000</v>
       </c>
       <c r="W70">
-        <v>425.2612164009723</v>
+        <v>418.2529257055771</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5424,61 +5424,61 @@
         <v>200</v>
       </c>
       <c r="E71">
-        <v>9.251639031258355</v>
+        <v>9.201467419044853</v>
       </c>
       <c r="F71">
         <v>400</v>
       </c>
       <c r="G71">
-        <v>29.10736951506621</v>
+        <v>29.08156424664134</v>
       </c>
       <c r="H71">
         <v>600</v>
       </c>
       <c r="I71">
-        <v>58.24324429067872</v>
+        <v>58.05793160186366</v>
       </c>
       <c r="J71">
         <v>800</v>
       </c>
       <c r="K71">
-        <v>95.9671047911078</v>
+        <v>95.22597325149189</v>
       </c>
       <c r="L71">
         <v>1000</v>
       </c>
       <c r="M71">
-        <v>139.798546501991</v>
+        <v>139.5611348423561</v>
       </c>
       <c r="N71">
         <v>1200</v>
       </c>
       <c r="O71">
-        <v>191.7299953266641</v>
+        <v>191.0536421625517</v>
       </c>
       <c r="P71">
         <v>1400</v>
       </c>
       <c r="Q71">
-        <v>244.7879143789057</v>
+        <v>245.843145670712</v>
       </c>
       <c r="R71">
         <v>1600</v>
       </c>
       <c r="S71">
-        <v>299.2061485816711</v>
+        <v>300.0690292190454</v>
       </c>
       <c r="T71">
         <v>1800</v>
       </c>
       <c r="U71">
-        <v>358.0097074360526</v>
+        <v>361.5012705039768</v>
       </c>
       <c r="V71">
         <v>2000</v>
       </c>
       <c r="W71">
-        <v>421.6307175699405</v>
+        <v>419.885602722255</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5495,61 +5495,61 @@
         <v>200</v>
       </c>
       <c r="E72">
-        <v>9.296628923007264</v>
+        <v>9.243963199441341</v>
       </c>
       <c r="F72">
         <v>400</v>
       </c>
       <c r="G72">
-        <v>29.16750189311488</v>
+        <v>28.92740560559193</v>
       </c>
       <c r="H72">
         <v>600</v>
       </c>
       <c r="I72">
-        <v>58.51650218592317</v>
+        <v>58.64556804898912</v>
       </c>
       <c r="J72">
         <v>800</v>
       </c>
       <c r="K72">
-        <v>95.68609363436154</v>
+        <v>95.13544700021252</v>
       </c>
       <c r="L72">
         <v>1000</v>
       </c>
       <c r="M72">
-        <v>140.1353064892503</v>
+        <v>139.6336577088584</v>
       </c>
       <c r="N72">
         <v>1200</v>
       </c>
       <c r="O72">
-        <v>189.956465974235</v>
+        <v>190.2818909502246</v>
       </c>
       <c r="P72">
         <v>1400</v>
       </c>
       <c r="Q72">
-        <v>242.0994096692217</v>
+        <v>245.0227777496833</v>
       </c>
       <c r="R72">
         <v>1600</v>
       </c>
       <c r="S72">
-        <v>300.5662077953214</v>
+        <v>300.5214179251302</v>
       </c>
       <c r="T72">
         <v>1800</v>
       </c>
       <c r="U72">
-        <v>359.3907437613077</v>
+        <v>359.8992586078873</v>
       </c>
       <c r="V72">
         <v>2000</v>
       </c>
       <c r="W72">
-        <v>420.6396274572751</v>
+        <v>420.2338633067755</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5566,61 +5566,61 @@
         <v>200</v>
       </c>
       <c r="E73">
-        <v>9.271649281978327</v>
+        <v>9.206006005700472</v>
       </c>
       <c r="F73">
         <v>400</v>
       </c>
       <c r="G73">
-        <v>29.23880170907028</v>
+        <v>28.87955222187003</v>
       </c>
       <c r="H73">
         <v>600</v>
       </c>
       <c r="I73">
-        <v>58.61890460857188</v>
+        <v>58.8727739270255</v>
       </c>
       <c r="J73">
         <v>800</v>
       </c>
       <c r="K73">
-        <v>96.80947214651873</v>
+        <v>95.88005872456699</v>
       </c>
       <c r="L73">
         <v>1000</v>
       </c>
       <c r="M73">
-        <v>140.7000319709643</v>
+        <v>140.628296400639</v>
       </c>
       <c r="N73">
         <v>1200</v>
       </c>
       <c r="O73">
-        <v>189.2615452931722</v>
+        <v>190.6514274205425</v>
       </c>
       <c r="P73">
         <v>1400</v>
       </c>
       <c r="Q73">
-        <v>245.4091465126278</v>
+        <v>245.7100802208701</v>
       </c>
       <c r="R73">
         <v>1600</v>
       </c>
       <c r="S73">
-        <v>303.1619787618177</v>
+        <v>301.2973199885905</v>
       </c>
       <c r="T73">
         <v>1800</v>
       </c>
       <c r="U73">
-        <v>360.1061174810901</v>
+        <v>358.5277466739611</v>
       </c>
       <c r="V73">
         <v>2000</v>
       </c>
       <c r="W73">
-        <v>421.0303308608014</v>
+        <v>423.1149109837489</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5637,61 +5637,61 @@
         <v>200</v>
       </c>
       <c r="E74">
-        <v>9.231379046978155</v>
+        <v>9.242114800015532</v>
       </c>
       <c r="F74">
         <v>400</v>
       </c>
       <c r="G74">
-        <v>29.11769545207127</v>
+        <v>29.24703962906702</v>
       </c>
       <c r="H74">
         <v>600</v>
       </c>
       <c r="I74">
-        <v>57.82034910827736</v>
+        <v>58.0176642769521</v>
       </c>
       <c r="J74">
         <v>800</v>
       </c>
       <c r="K74">
-        <v>95.36066759930495</v>
+        <v>95.81859921859383</v>
       </c>
       <c r="L74">
         <v>1000</v>
       </c>
       <c r="M74">
-        <v>140.4805619858547</v>
+        <v>140.2246903478407</v>
       </c>
       <c r="N74">
         <v>1200</v>
       </c>
       <c r="O74">
-        <v>191.5039486665293</v>
+        <v>192.2394121818281</v>
       </c>
       <c r="P74">
         <v>1400</v>
       </c>
       <c r="Q74">
-        <v>245.6077729184721</v>
+        <v>245.5082113131933</v>
       </c>
       <c r="R74">
         <v>1600</v>
       </c>
       <c r="S74">
-        <v>300.2955700034298</v>
+        <v>300.9309501172848</v>
       </c>
       <c r="T74">
         <v>1800</v>
       </c>
       <c r="U74">
-        <v>360.8139316678133</v>
+        <v>360.4807144964204</v>
       </c>
       <c r="V74">
         <v>2000</v>
       </c>
       <c r="W74">
-        <v>419.1063549686614</v>
+        <v>419.1140510054317</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5708,61 +5708,61 @@
         <v>200</v>
       </c>
       <c r="E75">
-        <v>9.308194554944016</v>
+        <v>9.317960111800502</v>
       </c>
       <c r="F75">
         <v>400</v>
       </c>
       <c r="G75">
-        <v>29.14024463703113</v>
+        <v>28.9771717790382</v>
       </c>
       <c r="H75">
         <v>600</v>
       </c>
       <c r="I75">
-        <v>58.37458137432078</v>
+        <v>58.29863328984086</v>
       </c>
       <c r="J75">
         <v>800</v>
       </c>
       <c r="K75">
-        <v>95.96986539023044</v>
+        <v>96.7316944709317</v>
       </c>
       <c r="L75">
         <v>1000</v>
       </c>
       <c r="M75">
-        <v>140.4953020453416</v>
+        <v>140.3030151052145</v>
       </c>
       <c r="N75">
         <v>1200</v>
       </c>
       <c r="O75">
-        <v>189.2504513510568</v>
+        <v>191.4842000003104</v>
       </c>
       <c r="P75">
         <v>1400</v>
       </c>
       <c r="Q75">
-        <v>244.4642524956437</v>
+        <v>243.4379690266016</v>
       </c>
       <c r="R75">
         <v>1600</v>
       </c>
       <c r="S75">
-        <v>301.3271537574613</v>
+        <v>301.987813002532</v>
       </c>
       <c r="T75">
         <v>1800</v>
       </c>
       <c r="U75">
-        <v>358.9463855516446</v>
+        <v>358.1092004671502</v>
       </c>
       <c r="V75">
         <v>2000</v>
       </c>
       <c r="W75">
-        <v>419.9240482412335</v>
+        <v>419.586176952716</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5779,61 +5779,61 @@
         <v>200</v>
       </c>
       <c r="E76">
-        <v>9.244609453791725</v>
+        <v>9.299416421165116</v>
       </c>
       <c r="F76">
         <v>400</v>
       </c>
       <c r="G76">
-        <v>29.09008903804194</v>
+        <v>29.19535713861853</v>
       </c>
       <c r="H76">
         <v>600</v>
       </c>
       <c r="I76">
-        <v>58.58621540932079</v>
+        <v>58.32961575139286</v>
       </c>
       <c r="J76">
         <v>800</v>
       </c>
       <c r="K76">
-        <v>95.6135440534763</v>
+        <v>95.47279229530716</v>
       </c>
       <c r="L76">
         <v>1000</v>
       </c>
       <c r="M76">
-        <v>140.9228169875406</v>
+        <v>139.6878945702602</v>
       </c>
       <c r="N76">
         <v>1200</v>
       </c>
       <c r="O76">
-        <v>190.0883419048511</v>
+        <v>189.4814784953531</v>
       </c>
       <c r="P76">
         <v>1400</v>
       </c>
       <c r="Q76">
-        <v>245.539378171275</v>
+        <v>244.3958319157421</v>
       </c>
       <c r="R76">
         <v>1600</v>
       </c>
       <c r="S76">
-        <v>302.3138938887538</v>
+        <v>302.2612387529867</v>
       </c>
       <c r="T76">
         <v>1800</v>
       </c>
       <c r="U76">
-        <v>361.3492709428184</v>
+        <v>362.19041072183</v>
       </c>
       <c r="V76">
         <v>2000</v>
       </c>
       <c r="W76">
-        <v>418.3781476366053</v>
+        <v>418.911808618682</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5850,61 +5850,61 @@
         <v>200</v>
       </c>
       <c r="E77">
-        <v>9.227259078930333</v>
+        <v>9.185913139728322</v>
       </c>
       <c r="F77">
         <v>400</v>
       </c>
       <c r="G77">
-        <v>28.97988457986816</v>
+        <v>29.1144576491463</v>
       </c>
       <c r="H77">
         <v>600</v>
       </c>
       <c r="I77">
-        <v>58.03880924828415</v>
+        <v>58.05752582375312</v>
       </c>
       <c r="J77">
         <v>800</v>
       </c>
       <c r="K77">
-        <v>95.4856098541933</v>
+        <v>96.06534207813792</v>
       </c>
       <c r="L77">
         <v>1000</v>
       </c>
       <c r="M77">
-        <v>140.6470178527988</v>
+        <v>141.5837811941513</v>
       </c>
       <c r="N77">
         <v>1200</v>
       </c>
       <c r="O77">
-        <v>189.8550478757452</v>
+        <v>190.9110926099872</v>
       </c>
       <c r="P77">
         <v>1400</v>
       </c>
       <c r="Q77">
-        <v>245.2408266906811</v>
+        <v>244.5080339360323</v>
       </c>
       <c r="R77">
         <v>1600</v>
       </c>
       <c r="S77">
-        <v>303.2864298274102</v>
+        <v>300.8572652004886</v>
       </c>
       <c r="T77">
         <v>1800</v>
       </c>
       <c r="U77">
-        <v>359.2599451886036</v>
+        <v>359.4134951377965</v>
       </c>
       <c r="V77">
         <v>2000</v>
       </c>
       <c r="W77">
-        <v>421.9695949697671</v>
+        <v>419.2450747318605</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5921,61 +5921,61 @@
         <v>200</v>
       </c>
       <c r="E78">
-        <v>9.188364766859305</v>
+        <v>9.253183574756703</v>
       </c>
       <c r="F78">
         <v>400</v>
       </c>
       <c r="G78">
-        <v>29.07034466605859</v>
+        <v>29.28257946840326</v>
       </c>
       <c r="H78">
         <v>600</v>
       </c>
       <c r="I78">
-        <v>58.46732943068869</v>
+        <v>58.43997972033067</v>
       </c>
       <c r="J78">
         <v>800</v>
       </c>
       <c r="K78">
-        <v>96.16503817785376</v>
+        <v>96.61659791499035</v>
       </c>
       <c r="L78">
         <v>1000</v>
       </c>
       <c r="M78">
-        <v>140.3024577109889</v>
+        <v>140.4133895635112</v>
       </c>
       <c r="N78">
         <v>1200</v>
       </c>
       <c r="O78">
-        <v>192.123259253916</v>
+        <v>189.8623641294744</v>
       </c>
       <c r="P78">
         <v>1400</v>
       </c>
       <c r="Q78">
-        <v>244.9415788241078</v>
+        <v>244.0987364220547</v>
       </c>
       <c r="R78">
         <v>1600</v>
       </c>
       <c r="S78">
-        <v>299.7488077846312</v>
+        <v>303.1240305804128</v>
       </c>
       <c r="T78">
         <v>1800</v>
       </c>
       <c r="U78">
-        <v>361.4322953165083</v>
+        <v>359.6857690278671</v>
       </c>
       <c r="V78">
         <v>2000</v>
       </c>
       <c r="W78">
-        <v>419.4810714128232</v>
+        <v>420.6594693313476</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -5992,61 +5992,61 @@
         <v>200</v>
       </c>
       <c r="E79">
-        <v>9.21906457752273</v>
+        <v>9.200889276264293</v>
       </c>
       <c r="F79">
         <v>400</v>
       </c>
       <c r="G79">
-        <v>29.10142910562609</v>
+        <v>29.33523586852004</v>
       </c>
       <c r="H79">
         <v>600</v>
       </c>
       <c r="I79">
-        <v>58.17251523752954</v>
+        <v>58.67680147786025</v>
       </c>
       <c r="J79">
         <v>800</v>
       </c>
       <c r="K79">
-        <v>96.91945741366807</v>
+        <v>96.7715864986462</v>
       </c>
       <c r="L79">
         <v>1000</v>
       </c>
       <c r="M79">
-        <v>140.0058638094225</v>
+        <v>140.9365014492309</v>
       </c>
       <c r="N79">
         <v>1200</v>
       </c>
       <c r="O79">
-        <v>190.9453003080596</v>
+        <v>189.308687545355</v>
       </c>
       <c r="P79">
         <v>1400</v>
       </c>
       <c r="Q79">
-        <v>245.3694419909286</v>
+        <v>244.504244274141</v>
       </c>
       <c r="R79">
         <v>1600</v>
       </c>
       <c r="S79">
-        <v>303.5486968338719</v>
+        <v>303.1166564336163</v>
       </c>
       <c r="T79">
         <v>1800</v>
       </c>
       <c r="U79">
-        <v>361.7338111191747</v>
+        <v>360.620248169385</v>
       </c>
       <c r="V79">
         <v>2000</v>
       </c>
       <c r="W79">
-        <v>419.4159894965932</v>
+        <v>419.6497034315722</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6063,61 +6063,61 @@
         <v>200</v>
       </c>
       <c r="E80">
-        <v>9.205509288126985</v>
+        <v>9.328302119152987</v>
       </c>
       <c r="F80">
         <v>400</v>
       </c>
       <c r="G80">
-        <v>29.0963350612985</v>
+        <v>29.00238585813038</v>
       </c>
       <c r="H80">
         <v>600</v>
       </c>
       <c r="I80">
-        <v>58.39985173541815</v>
+        <v>58.80654046178378</v>
       </c>
       <c r="J80">
         <v>800</v>
       </c>
       <c r="K80">
-        <v>95.94260964391341</v>
+        <v>96.48379707897531</v>
       </c>
       <c r="L80">
         <v>1000</v>
       </c>
       <c r="M80">
-        <v>140.5608423009917</v>
+        <v>141.208859383902</v>
       </c>
       <c r="N80">
         <v>1200</v>
       </c>
       <c r="O80">
-        <v>190.6043514031545</v>
+        <v>190.035238123997</v>
       </c>
       <c r="P80">
         <v>1400</v>
       </c>
       <c r="Q80">
-        <v>245.9051896014479</v>
+        <v>244.3223418914181</v>
       </c>
       <c r="R80">
         <v>1600</v>
       </c>
       <c r="S80">
-        <v>301.3586134464369</v>
+        <v>301.2256023898782</v>
       </c>
       <c r="T80">
         <v>1800</v>
       </c>
       <c r="U80">
-        <v>363.1189372338156</v>
+        <v>359.7361512079458</v>
       </c>
       <c r="V80">
         <v>2000</v>
       </c>
       <c r="W80">
-        <v>418.4175772300193</v>
+        <v>420.4303644826595</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6134,61 +6134,61 @@
         <v>200</v>
       </c>
       <c r="E81">
-        <v>9.269830792564209</v>
+        <v>9.275847744411605</v>
       </c>
       <c r="F81">
         <v>400</v>
       </c>
       <c r="G81">
-        <v>29.24808481684626</v>
+        <v>29.16508214386849</v>
       </c>
       <c r="H81">
         <v>600</v>
       </c>
       <c r="I81">
-        <v>58.44831388842893</v>
+        <v>58.54936181430579</v>
       </c>
       <c r="J81">
         <v>800</v>
       </c>
       <c r="K81">
-        <v>96.15360179995223</v>
+        <v>96.06907956524238</v>
       </c>
       <c r="L81">
         <v>1000</v>
       </c>
       <c r="M81">
-        <v>140.0937039957431</v>
+        <v>140.1107405097657</v>
       </c>
       <c r="N81">
         <v>1200</v>
       </c>
       <c r="O81">
-        <v>191.4383542926842</v>
+        <v>189.6311937774017</v>
       </c>
       <c r="P81">
         <v>1400</v>
       </c>
       <c r="Q81">
-        <v>243.9183730644344</v>
+        <v>245.1031207572726</v>
       </c>
       <c r="R81">
         <v>1600</v>
       </c>
       <c r="S81">
-        <v>303.1937867641055</v>
+        <v>300.9191501228373</v>
       </c>
       <c r="T81">
         <v>1800</v>
       </c>
       <c r="U81">
-        <v>361.2917780082522</v>
+        <v>360.8430951898914</v>
       </c>
       <c r="V81">
         <v>2000</v>
       </c>
       <c r="W81">
-        <v>425.9153532309331</v>
+        <v>420.9687198680521</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6205,61 +6205,61 @@
         <v>200</v>
       </c>
       <c r="E82">
-        <v>9.212372296630454</v>
+        <v>9.184257393951579</v>
       </c>
       <c r="F82">
         <v>400</v>
       </c>
       <c r="G82">
-        <v>29.07728117407575</v>
+        <v>29.17439018178798</v>
       </c>
       <c r="H82">
         <v>600</v>
       </c>
       <c r="I82">
-        <v>58.67827116268711</v>
+        <v>58.79845188037078</v>
       </c>
       <c r="J82">
         <v>800</v>
       </c>
       <c r="K82">
-        <v>95.92807800129671</v>
+        <v>94.98543212197841</v>
       </c>
       <c r="L82">
         <v>1000</v>
       </c>
       <c r="M82">
-        <v>141.1981585707516</v>
+        <v>140.6518415608828</v>
       </c>
       <c r="N82">
         <v>1200</v>
       </c>
       <c r="O82">
-        <v>190.4245168301404</v>
+        <v>191.4218850970899</v>
       </c>
       <c r="P82">
         <v>1400</v>
       </c>
       <c r="Q82">
-        <v>244.4826531151569</v>
+        <v>243.1569137777667</v>
       </c>
       <c r="R82">
         <v>1600</v>
       </c>
       <c r="S82">
-        <v>301.2507107165388</v>
+        <v>300.6799193191916</v>
       </c>
       <c r="T82">
         <v>1800</v>
       </c>
       <c r="U82">
-        <v>361.9631047562004</v>
+        <v>358.4923188210782</v>
       </c>
       <c r="V82">
         <v>2000</v>
       </c>
       <c r="W82">
-        <v>419.1446133751567</v>
+        <v>419.9508176524988</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6276,61 +6276,61 @@
         <v>200</v>
       </c>
       <c r="E83">
-        <v>9.169557027066862</v>
+        <v>9.269502484808422</v>
       </c>
       <c r="F83">
         <v>400</v>
       </c>
       <c r="G83">
-        <v>29.36316193019027</v>
+        <v>28.83458279100804</v>
       </c>
       <c r="H83">
         <v>600</v>
       </c>
       <c r="I83">
-        <v>58.07299960464653</v>
+        <v>58.44870085675746</v>
       </c>
       <c r="J83">
         <v>800</v>
       </c>
       <c r="K83">
-        <v>96.86792887926353</v>
+        <v>95.50279022976196</v>
       </c>
       <c r="L83">
         <v>1000</v>
       </c>
       <c r="M83">
-        <v>138.8554236770688</v>
+        <v>140.4408750459905</v>
       </c>
       <c r="N83">
         <v>1200</v>
       </c>
       <c r="O83">
-        <v>191.5061638061233</v>
+        <v>190.502647528906</v>
       </c>
       <c r="P83">
         <v>1400</v>
       </c>
       <c r="Q83">
-        <v>246.5628427475557</v>
+        <v>244.1326054101705</v>
       </c>
       <c r="R83">
         <v>1600</v>
       </c>
       <c r="S83">
-        <v>303.2448338217474</v>
+        <v>302.8483105780087</v>
       </c>
       <c r="T83">
         <v>1800</v>
       </c>
       <c r="U83">
-        <v>359.4555120025146</v>
+        <v>357.3299663919698</v>
       </c>
       <c r="V83">
         <v>2000</v>
       </c>
       <c r="W83">
-        <v>422.2182604000513</v>
+        <v>417.8826500841137</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6347,61 +6347,61 @@
         <v>200</v>
       </c>
       <c r="E84">
-        <v>9.284319429874174</v>
+        <v>9.257609602674746</v>
       </c>
       <c r="F84">
         <v>400</v>
       </c>
       <c r="G84">
-        <v>29.1399257611831</v>
+        <v>29.11777067472451</v>
       </c>
       <c r="H84">
         <v>600</v>
       </c>
       <c r="I84">
-        <v>58.6437058338966</v>
+        <v>58.79801875962899</v>
       </c>
       <c r="J84">
         <v>800</v>
       </c>
       <c r="K84">
-        <v>95.79015769167314</v>
+        <v>96.60392737365288</v>
       </c>
       <c r="L84">
         <v>1000</v>
       </c>
       <c r="M84">
-        <v>139.6832982414607</v>
+        <v>141.3185698757709</v>
       </c>
       <c r="N84">
         <v>1200</v>
       </c>
       <c r="O84">
-        <v>190.0678927758267</v>
+        <v>190.8754462577129</v>
       </c>
       <c r="P84">
         <v>1400</v>
       </c>
       <c r="Q84">
-        <v>246.2643942998888</v>
+        <v>245.8989757907551</v>
       </c>
       <c r="R84">
         <v>1600</v>
       </c>
       <c r="S84">
-        <v>301.8548144724776</v>
+        <v>301.2792586104441</v>
       </c>
       <c r="T84">
         <v>1800</v>
       </c>
       <c r="U84">
-        <v>360.0687891227566</v>
+        <v>360.8008083615978</v>
       </c>
       <c r="V84">
         <v>2000</v>
       </c>
       <c r="W84">
-        <v>424.175310745271</v>
+        <v>419.1667802313078</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6418,61 +6418,61 @@
         <v>200</v>
       </c>
       <c r="E85">
-        <v>9.2567568283743</v>
+        <v>9.274337903820616</v>
       </c>
       <c r="F85">
         <v>400</v>
       </c>
       <c r="G85">
-        <v>29.24004749683681</v>
+        <v>28.96909137852119</v>
       </c>
       <c r="H85">
         <v>600</v>
       </c>
       <c r="I85">
-        <v>58.25002303781978</v>
+        <v>59.02509163021701</v>
       </c>
       <c r="J85">
         <v>800</v>
       </c>
       <c r="K85">
-        <v>96.16987268651235</v>
+        <v>95.84149579724759</v>
       </c>
       <c r="L85">
         <v>1000</v>
       </c>
       <c r="M85">
-        <v>139.7219631290113</v>
+        <v>140.5074774903241</v>
       </c>
       <c r="N85">
         <v>1200</v>
       </c>
       <c r="O85">
-        <v>190.0100434753514</v>
+        <v>189.946196923225</v>
       </c>
       <c r="P85">
         <v>1400</v>
       </c>
       <c r="Q85">
-        <v>245.3635587224963</v>
+        <v>245.8576849215175</v>
       </c>
       <c r="R85">
         <v>1600</v>
       </c>
       <c r="S85">
-        <v>302.3426902089212</v>
+        <v>301.5757145157427</v>
       </c>
       <c r="T85">
         <v>1800</v>
       </c>
       <c r="U85">
-        <v>359.8809628331048</v>
+        <v>359.7544940459709</v>
       </c>
       <c r="V85">
         <v>2000</v>
       </c>
       <c r="W85">
-        <v>418.2234764930793</v>
+        <v>421.592805099972</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6489,61 +6489,61 @@
         <v>200</v>
       </c>
       <c r="E86">
-        <v>9.292543168829676</v>
+        <v>9.2309236838598</v>
       </c>
       <c r="F86">
         <v>400</v>
       </c>
       <c r="G86">
-        <v>28.89704970515761</v>
+        <v>29.20232446950065</v>
       </c>
       <c r="H86">
         <v>600</v>
       </c>
       <c r="I86">
-        <v>58.47988854183666</v>
+        <v>58.26420328498924</v>
       </c>
       <c r="J86">
         <v>800</v>
       </c>
       <c r="K86">
-        <v>95.73483108891809</v>
+        <v>95.74770477673326</v>
       </c>
       <c r="L86">
         <v>1000</v>
       </c>
       <c r="M86">
-        <v>140.3380403930891</v>
+        <v>140.7804524372142</v>
       </c>
       <c r="N86">
         <v>1200</v>
       </c>
       <c r="O86">
-        <v>190.533782388513</v>
+        <v>190.3443502903109</v>
       </c>
       <c r="P86">
         <v>1400</v>
       </c>
       <c r="Q86">
-        <v>245.8081089352263</v>
+        <v>245.4764197805998</v>
       </c>
       <c r="R86">
         <v>1600</v>
       </c>
       <c r="S86">
-        <v>300.0087364607265</v>
+        <v>300.9713516817993</v>
       </c>
       <c r="T86">
         <v>1800</v>
       </c>
       <c r="U86">
-        <v>361.0529564537925</v>
+        <v>363.1832942588691</v>
       </c>
       <c r="V86">
         <v>2000</v>
       </c>
       <c r="W86">
-        <v>421.2065801165762</v>
+        <v>420.167991625884</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6560,61 +6560,61 @@
         <v>200</v>
       </c>
       <c r="E87">
-        <v>9.254621586402457</v>
+        <v>9.20202014906522</v>
       </c>
       <c r="F87">
         <v>400</v>
       </c>
       <c r="G87">
-        <v>28.98717574695012</v>
+        <v>29.07604901401222</v>
       </c>
       <c r="H87">
         <v>600</v>
       </c>
       <c r="I87">
-        <v>58.24320089281913</v>
+        <v>58.34490732928545</v>
       </c>
       <c r="J87">
         <v>800</v>
       </c>
       <c r="K87">
-        <v>96.23620228046566</v>
+        <v>95.58178406280334</v>
       </c>
       <c r="L87">
         <v>1000</v>
       </c>
       <c r="M87">
-        <v>140.2406326817428</v>
+        <v>140.4912563881496</v>
       </c>
       <c r="N87">
         <v>1200</v>
       </c>
       <c r="O87">
-        <v>191.5558029576235</v>
+        <v>189.8621100089215</v>
       </c>
       <c r="P87">
         <v>1400</v>
       </c>
       <c r="Q87">
-        <v>244.4158396335905</v>
+        <v>243.5302934426654</v>
       </c>
       <c r="R87">
         <v>1600</v>
       </c>
       <c r="S87">
-        <v>303.252328067327</v>
+        <v>302.8162410430382</v>
       </c>
       <c r="T87">
         <v>1800</v>
       </c>
       <c r="U87">
-        <v>360.0810006220599</v>
+        <v>359.2533207555082</v>
       </c>
       <c r="V87">
         <v>2000</v>
       </c>
       <c r="W87">
-        <v>418.5466572160204</v>
+        <v>419.5643335763895</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6631,61 +6631,61 @@
         <v>200</v>
       </c>
       <c r="E88">
-        <v>9.23800151594509</v>
+        <v>9.243277774939624</v>
       </c>
       <c r="F88">
         <v>400</v>
       </c>
       <c r="G88">
-        <v>29.14630708467744</v>
+        <v>28.91975594302042</v>
       </c>
       <c r="H88">
         <v>600</v>
       </c>
       <c r="I88">
-        <v>58.04562267221684</v>
+        <v>58.25950131835371</v>
       </c>
       <c r="J88">
         <v>800</v>
       </c>
       <c r="K88">
-        <v>95.71572615573399</v>
+        <v>96.13670777125743</v>
       </c>
       <c r="L88">
         <v>1000</v>
       </c>
       <c r="M88">
-        <v>140.4187901868399</v>
+        <v>141.0583140320779</v>
       </c>
       <c r="N88">
         <v>1200</v>
       </c>
       <c r="O88">
-        <v>190.2349095709689</v>
+        <v>190.7419971915217</v>
       </c>
       <c r="P88">
         <v>1400</v>
       </c>
       <c r="Q88">
-        <v>245.0022765904525</v>
+        <v>244.9375509919556</v>
       </c>
       <c r="R88">
         <v>1600</v>
       </c>
       <c r="S88">
-        <v>300.5540659305748</v>
+        <v>298.4275644256374</v>
       </c>
       <c r="T88">
         <v>1800</v>
       </c>
       <c r="U88">
-        <v>359.8022599551248</v>
+        <v>360.8562209918948</v>
       </c>
       <c r="V88">
         <v>2000</v>
       </c>
       <c r="W88">
-        <v>424.6558328201043</v>
+        <v>419.6212160559583</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6702,61 +6702,61 @@
         <v>200</v>
       </c>
       <c r="E89">
-        <v>9.194187326324903</v>
+        <v>9.188340935453256</v>
       </c>
       <c r="F89">
         <v>400</v>
       </c>
       <c r="G89">
-        <v>29.30137576692641</v>
+        <v>29.26295843342194</v>
       </c>
       <c r="H89">
         <v>600</v>
       </c>
       <c r="I89">
-        <v>57.86189587059701</v>
+        <v>58.0244238832606</v>
       </c>
       <c r="J89">
         <v>800</v>
       </c>
       <c r="K89">
-        <v>97.49927619952534</v>
+        <v>97.21454879609553</v>
       </c>
       <c r="L89">
         <v>1000</v>
       </c>
       <c r="M89">
-        <v>140.0963074298614</v>
+        <v>141.0853520833353</v>
       </c>
       <c r="N89">
         <v>1200</v>
       </c>
       <c r="O89">
-        <v>189.7619577536439</v>
+        <v>191.2806775427965</v>
       </c>
       <c r="P89">
         <v>1400</v>
       </c>
       <c r="Q89">
-        <v>242.9552099547383</v>
+        <v>245.393586852908</v>
       </c>
       <c r="R89">
         <v>1600</v>
       </c>
       <c r="S89">
-        <v>303.7073134558809</v>
+        <v>302.5325214694852</v>
       </c>
       <c r="T89">
         <v>1800</v>
       </c>
       <c r="U89">
-        <v>360.7241565956227</v>
+        <v>360.8540504413847</v>
       </c>
       <c r="V89">
         <v>2000</v>
       </c>
       <c r="W89">
-        <v>419.0288733772506</v>
+        <v>422.8773918189217</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6773,61 +6773,61 @@
         <v>200</v>
       </c>
       <c r="E90">
-        <v>9.243102063718958</v>
+        <v>9.172672238307689</v>
       </c>
       <c r="F90">
         <v>400</v>
       </c>
       <c r="G90">
-        <v>29.02729095929869</v>
+        <v>29.10196812519804</v>
       </c>
       <c r="H90">
         <v>600</v>
       </c>
       <c r="I90">
-        <v>58.18552986216249</v>
+        <v>58.17037234593838</v>
       </c>
       <c r="J90">
         <v>800</v>
       </c>
       <c r="K90">
-        <v>95.78881987760194</v>
+        <v>96.29533925486092</v>
       </c>
       <c r="L90">
         <v>1000</v>
       </c>
       <c r="M90">
-        <v>140.5925026125356</v>
+        <v>140.6293641433582</v>
       </c>
       <c r="N90">
         <v>1200</v>
       </c>
       <c r="O90">
-        <v>190.8958181305822</v>
+        <v>190.652202001987</v>
       </c>
       <c r="P90">
         <v>1400</v>
       </c>
       <c r="Q90">
-        <v>245.6628302026867</v>
+        <v>242.5901048410672</v>
       </c>
       <c r="R90">
         <v>1600</v>
       </c>
       <c r="S90">
-        <v>301.6462533370264</v>
+        <v>301.6220540604419</v>
       </c>
       <c r="T90">
         <v>1800</v>
       </c>
       <c r="U90">
-        <v>359.7212447382855</v>
+        <v>360.6221191289361</v>
       </c>
       <c r="V90">
         <v>2000</v>
       </c>
       <c r="W90">
-        <v>419.7318413089682</v>
+        <v>419.3154604038425</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6844,61 +6844,61 @@
         <v>200</v>
       </c>
       <c r="E91">
-        <v>9.262091884910351</v>
+        <v>9.189086732528537</v>
       </c>
       <c r="F91">
         <v>400</v>
       </c>
       <c r="G91">
-        <v>28.97500821741967</v>
+        <v>29.03664987666432</v>
       </c>
       <c r="H91">
         <v>600</v>
       </c>
       <c r="I91">
-        <v>58.82788747838002</v>
+        <v>58.43940421540251</v>
       </c>
       <c r="J91">
         <v>800</v>
       </c>
       <c r="K91">
-        <v>96.02584032523926</v>
+        <v>95.55599914605865</v>
       </c>
       <c r="L91">
         <v>1000</v>
       </c>
       <c r="M91">
-        <v>139.8742216026139</v>
+        <v>139.3536102614386</v>
       </c>
       <c r="N91">
         <v>1200</v>
       </c>
       <c r="O91">
-        <v>189.946590387842</v>
+        <v>191.1229469246952</v>
       </c>
       <c r="P91">
         <v>1400</v>
       </c>
       <c r="Q91">
-        <v>245.5364471314346</v>
+        <v>244.9758567212902</v>
       </c>
       <c r="R91">
         <v>1600</v>
       </c>
       <c r="S91">
-        <v>301.263111395178</v>
+        <v>303.6820188496133</v>
       </c>
       <c r="T91">
         <v>1800</v>
       </c>
       <c r="U91">
-        <v>362.9560247796344</v>
+        <v>361.6285909051364</v>
       </c>
       <c r="V91">
         <v>2000</v>
       </c>
       <c r="W91">
-        <v>419.342210316877</v>
+        <v>421.0319010465709</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6915,61 +6915,61 @@
         <v>200</v>
       </c>
       <c r="E92">
-        <v>9.245734561851915</v>
+        <v>9.223977488519738</v>
       </c>
       <c r="F92">
         <v>400</v>
       </c>
       <c r="G92">
-        <v>29.09279795035856</v>
+        <v>28.98251279181644</v>
       </c>
       <c r="H92">
         <v>600</v>
       </c>
       <c r="I92">
-        <v>58.33537776751721</v>
+        <v>58.39811065156681</v>
       </c>
       <c r="J92">
         <v>800</v>
       </c>
       <c r="K92">
-        <v>96.06360145094045</v>
+        <v>96.78190695143331</v>
       </c>
       <c r="L92">
         <v>1000</v>
       </c>
       <c r="M92">
-        <v>139.1089219980467</v>
+        <v>140.0445832901721</v>
       </c>
       <c r="N92">
         <v>1200</v>
       </c>
       <c r="O92">
-        <v>190.9865428181686</v>
+        <v>190.3443992991629</v>
       </c>
       <c r="P92">
         <v>1400</v>
       </c>
       <c r="Q92">
-        <v>245.434138377166</v>
+        <v>245.21635651541</v>
       </c>
       <c r="R92">
         <v>1600</v>
       </c>
       <c r="S92">
-        <v>303.9879594963673</v>
+        <v>301.6917117552759</v>
       </c>
       <c r="T92">
         <v>1800</v>
       </c>
       <c r="U92">
-        <v>360.8782340932656</v>
+        <v>360.7251613475502</v>
       </c>
       <c r="V92">
         <v>2000</v>
       </c>
       <c r="W92">
-        <v>423.3515406778442</v>
+        <v>420.3920109609637</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -6986,61 +6986,61 @@
         <v>200</v>
       </c>
       <c r="E93">
-        <v>9.244113346728676</v>
+        <v>9.254078437412231</v>
       </c>
       <c r="F93">
         <v>400</v>
       </c>
       <c r="G93">
-        <v>29.19880152065901</v>
+        <v>29.05383535820262</v>
       </c>
       <c r="H93">
         <v>600</v>
       </c>
       <c r="I93">
-        <v>58.4955099926924</v>
+        <v>58.42660489241432</v>
       </c>
       <c r="J93">
         <v>800</v>
       </c>
       <c r="K93">
-        <v>96.31326957436289</v>
+        <v>95.36321543164694</v>
       </c>
       <c r="L93">
         <v>1000</v>
       </c>
       <c r="M93">
-        <v>141.3382327744085</v>
+        <v>139.5006068567342</v>
       </c>
       <c r="N93">
         <v>1200</v>
       </c>
       <c r="O93">
-        <v>190.1330549320881</v>
+        <v>190.4280253146681</v>
       </c>
       <c r="P93">
         <v>1400</v>
       </c>
       <c r="Q93">
-        <v>245.5962639392058</v>
+        <v>244.739743931059</v>
       </c>
       <c r="R93">
         <v>1600</v>
       </c>
       <c r="S93">
-        <v>302.1404969825549</v>
+        <v>301.2624906048983</v>
       </c>
       <c r="T93">
         <v>1800</v>
       </c>
       <c r="U93">
-        <v>359.0146669909685</v>
+        <v>361.5829354211536</v>
       </c>
       <c r="V93">
         <v>2000</v>
       </c>
       <c r="W93">
-        <v>421.7474481989838</v>
+        <v>423.4050085141135</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7057,61 +7057,61 @@
         <v>200</v>
       </c>
       <c r="E94">
-        <v>9.240411055423298</v>
+        <v>9.291709812285704</v>
       </c>
       <c r="F94">
         <v>400</v>
       </c>
       <c r="G94">
-        <v>28.96047560320727</v>
+        <v>29.0516970950166</v>
       </c>
       <c r="H94">
         <v>600</v>
       </c>
       <c r="I94">
-        <v>58.48994016258639</v>
+        <v>58.47518117760404</v>
       </c>
       <c r="J94">
         <v>800</v>
       </c>
       <c r="K94">
-        <v>95.55101670131239</v>
+        <v>95.87687459789738</v>
       </c>
       <c r="L94">
         <v>1000</v>
       </c>
       <c r="M94">
-        <v>140.6623570137841</v>
+        <v>140.0588128855064</v>
       </c>
       <c r="N94">
         <v>1200</v>
       </c>
       <c r="O94">
-        <v>190.1719235354848</v>
+        <v>192.3591617620064</v>
       </c>
       <c r="P94">
         <v>1400</v>
       </c>
       <c r="Q94">
-        <v>244.3338970945373</v>
+        <v>244.3939010987332</v>
       </c>
       <c r="R94">
         <v>1600</v>
       </c>
       <c r="S94">
-        <v>300.7375731069752</v>
+        <v>301.3721480486162</v>
       </c>
       <c r="T94">
         <v>1800</v>
       </c>
       <c r="U94">
-        <v>362.8094156290378</v>
+        <v>360.7596819648659</v>
       </c>
       <c r="V94">
         <v>2000</v>
       </c>
       <c r="W94">
-        <v>420.6488229791807</v>
+        <v>420.5311299694601</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7128,61 +7128,61 @@
         <v>200</v>
       </c>
       <c r="E95">
-        <v>9.309051266135906</v>
+        <v>9.215371831716677</v>
       </c>
       <c r="F95">
         <v>400</v>
       </c>
       <c r="G95">
-        <v>29.18639303681535</v>
+        <v>29.25801196129165</v>
       </c>
       <c r="H95">
         <v>600</v>
       </c>
       <c r="I95">
-        <v>58.16305592245885</v>
+        <v>58.74784732944755</v>
       </c>
       <c r="J95">
         <v>800</v>
       </c>
       <c r="K95">
-        <v>95.52063410978576</v>
+        <v>96.39412454927991</v>
       </c>
       <c r="L95">
         <v>1000</v>
       </c>
       <c r="M95">
-        <v>140.7651886799565</v>
+        <v>140.6858481321302</v>
       </c>
       <c r="N95">
         <v>1200</v>
       </c>
       <c r="O95">
-        <v>191.4363128232926</v>
+        <v>190.0816135335039</v>
       </c>
       <c r="P95">
         <v>1400</v>
       </c>
       <c r="Q95">
-        <v>243.9523620460671</v>
+        <v>246.431474020932</v>
       </c>
       <c r="R95">
         <v>1600</v>
       </c>
       <c r="S95">
-        <v>302.567298774158</v>
+        <v>301.5162876569601</v>
       </c>
       <c r="T95">
         <v>1800</v>
       </c>
       <c r="U95">
-        <v>360.33503273271</v>
+        <v>359.3657245751342</v>
       </c>
       <c r="V95">
         <v>2000</v>
       </c>
       <c r="W95">
-        <v>422.2254973915797</v>
+        <v>423.7774850147989</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7199,61 +7199,61 @@
         <v>200</v>
       </c>
       <c r="E96">
-        <v>9.233602367096116</v>
+        <v>9.202961296090349</v>
       </c>
       <c r="F96">
         <v>400</v>
       </c>
       <c r="G96">
-        <v>29.02148534167844</v>
+        <v>28.90323543565993</v>
       </c>
       <c r="H96">
         <v>600</v>
       </c>
       <c r="I96">
-        <v>58.69979850213218</v>
+        <v>58.33901158830903</v>
       </c>
       <c r="J96">
         <v>800</v>
       </c>
       <c r="K96">
-        <v>95.41851513726282</v>
+        <v>96.28519784146214</v>
       </c>
       <c r="L96">
         <v>1000</v>
       </c>
       <c r="M96">
-        <v>140.2220528174916</v>
+        <v>140.6916260479759</v>
       </c>
       <c r="N96">
         <v>1200</v>
       </c>
       <c r="O96">
-        <v>189.7406038157204</v>
+        <v>190.5410175932158</v>
       </c>
       <c r="P96">
         <v>1400</v>
       </c>
       <c r="Q96">
-        <v>247.8391762137628</v>
+        <v>244.5958614221516</v>
       </c>
       <c r="R96">
         <v>1600</v>
       </c>
       <c r="S96">
-        <v>301.5507220744102</v>
+        <v>304.493948847181</v>
       </c>
       <c r="T96">
         <v>1800</v>
       </c>
       <c r="U96">
-        <v>363.3260347556806</v>
+        <v>361.754772936237</v>
       </c>
       <c r="V96">
         <v>2000</v>
       </c>
       <c r="W96">
-        <v>422.8325457722149</v>
+        <v>417.1113666572149</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7270,61 +7270,61 @@
         <v>200</v>
       </c>
       <c r="E97">
-        <v>9.157202266679466</v>
+        <v>9.284218176355632</v>
       </c>
       <c r="F97">
         <v>400</v>
       </c>
       <c r="G97">
-        <v>29.30746244108757</v>
+        <v>29.14517378612402</v>
       </c>
       <c r="H97">
         <v>600</v>
       </c>
       <c r="I97">
-        <v>58.31401873791002</v>
+        <v>57.71166033985003</v>
       </c>
       <c r="J97">
         <v>800</v>
       </c>
       <c r="K97">
-        <v>96.45722718146968</v>
+        <v>95.61943714769988</v>
       </c>
       <c r="L97">
         <v>1000</v>
       </c>
       <c r="M97">
-        <v>140.3720782745935</v>
+        <v>139.9308692047275</v>
       </c>
       <c r="N97">
         <v>1200</v>
       </c>
       <c r="O97">
-        <v>190.0970657477496</v>
+        <v>189.4217884501534</v>
       </c>
       <c r="P97">
         <v>1400</v>
       </c>
       <c r="Q97">
-        <v>245.4215191261493</v>
+        <v>245.5946637881343</v>
       </c>
       <c r="R97">
         <v>1600</v>
       </c>
       <c r="S97">
-        <v>303.3679517383852</v>
+        <v>303.606018933013</v>
       </c>
       <c r="T97">
         <v>1800</v>
       </c>
       <c r="U97">
-        <v>360.7946522877017</v>
+        <v>359.5474134937832</v>
       </c>
       <c r="V97">
         <v>2000</v>
       </c>
       <c r="W97">
-        <v>419.314349761994</v>
+        <v>417.1122227027004</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7341,61 +7341,61 @@
         <v>200</v>
       </c>
       <c r="E98">
-        <v>9.253720818398204</v>
+        <v>9.301342239208175</v>
       </c>
       <c r="F98">
         <v>400</v>
       </c>
       <c r="G98">
-        <v>29.05223450336984</v>
+        <v>29.25252301687085</v>
       </c>
       <c r="H98">
         <v>600</v>
       </c>
       <c r="I98">
-        <v>58.9311144741086</v>
+        <v>58.54420014904217</v>
       </c>
       <c r="J98">
         <v>800</v>
       </c>
       <c r="K98">
-        <v>95.6499725165782</v>
+        <v>96.75967398148083</v>
       </c>
       <c r="L98">
         <v>1000</v>
       </c>
       <c r="M98">
-        <v>140.3700686545339</v>
+        <v>140.2195828311419</v>
       </c>
       <c r="N98">
         <v>1200</v>
       </c>
       <c r="O98">
-        <v>189.2662452881276</v>
+        <v>191.035560130173</v>
       </c>
       <c r="P98">
         <v>1400</v>
       </c>
       <c r="Q98">
-        <v>244.5845906307415</v>
+        <v>245.7290596180238</v>
       </c>
       <c r="R98">
         <v>1600</v>
       </c>
       <c r="S98">
-        <v>303.1740931211639</v>
+        <v>301.6083242268032</v>
       </c>
       <c r="T98">
         <v>1800</v>
       </c>
       <c r="U98">
-        <v>358.8791413195721</v>
+        <v>359.8420069527169</v>
       </c>
       <c r="V98">
         <v>2000</v>
       </c>
       <c r="W98">
-        <v>421.4213605961923</v>
+        <v>423.0526269271101</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7412,61 +7412,61 @@
         <v>200</v>
       </c>
       <c r="E99">
-        <v>9.190138430176452</v>
+        <v>9.216543538156273</v>
       </c>
       <c r="F99">
         <v>400</v>
       </c>
       <c r="G99">
-        <v>28.86018793151266</v>
+        <v>29.12408210748585</v>
       </c>
       <c r="H99">
         <v>600</v>
       </c>
       <c r="I99">
-        <v>58.18265299470428</v>
+        <v>58.70477003019226</v>
       </c>
       <c r="J99">
         <v>800</v>
       </c>
       <c r="K99">
-        <v>96.88609135919548</v>
+        <v>96.40294327185312</v>
       </c>
       <c r="L99">
         <v>1000</v>
       </c>
       <c r="M99">
-        <v>141.4463546200185</v>
+        <v>141.8962523189159</v>
       </c>
       <c r="N99">
         <v>1200</v>
       </c>
       <c r="O99">
-        <v>191.0846780213754</v>
+        <v>190.1972264066615</v>
       </c>
       <c r="P99">
         <v>1400</v>
       </c>
       <c r="Q99">
-        <v>245.6789308242397</v>
+        <v>243.8574048699775</v>
       </c>
       <c r="R99">
         <v>1600</v>
       </c>
       <c r="S99">
-        <v>301.7863468529589</v>
+        <v>301.8040348703512</v>
       </c>
       <c r="T99">
         <v>1800</v>
       </c>
       <c r="U99">
-        <v>359.2459876188381</v>
+        <v>360.3792136799488</v>
       </c>
       <c r="V99">
         <v>2000</v>
       </c>
       <c r="W99">
-        <v>421.0797661983573</v>
+        <v>420.3957873042035</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7483,61 +7483,61 @@
         <v>200</v>
       </c>
       <c r="E100">
-        <v>9.188130305874552</v>
+        <v>9.21262450153738</v>
       </c>
       <c r="F100">
         <v>400</v>
       </c>
       <c r="G100">
-        <v>28.76181318430523</v>
+        <v>29.15061434670712</v>
       </c>
       <c r="H100">
         <v>600</v>
       </c>
       <c r="I100">
-        <v>58.62262099274859</v>
+        <v>58.48063433767208</v>
       </c>
       <c r="J100">
         <v>800</v>
       </c>
       <c r="K100">
-        <v>95.94503894797616</v>
+        <v>95.37732115036491</v>
       </c>
       <c r="L100">
         <v>1000</v>
       </c>
       <c r="M100">
-        <v>140.8553705053895</v>
+        <v>141.9535140752578</v>
       </c>
       <c r="N100">
         <v>1200</v>
       </c>
       <c r="O100">
-        <v>188.8798140036368</v>
+        <v>188.7124010398751</v>
       </c>
       <c r="P100">
         <v>1400</v>
       </c>
       <c r="Q100">
-        <v>245.4330332891532</v>
+        <v>246.0637696990598</v>
       </c>
       <c r="R100">
         <v>1600</v>
       </c>
       <c r="S100">
-        <v>302.0911931606149</v>
+        <v>304.0792781303663</v>
       </c>
       <c r="T100">
         <v>1800</v>
       </c>
       <c r="U100">
-        <v>361.1961502396092</v>
+        <v>357.5460479927714</v>
       </c>
       <c r="V100">
         <v>2000</v>
       </c>
       <c r="W100">
-        <v>418.535683192906</v>
+        <v>418.9494711067039</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7554,61 +7554,61 @@
         <v>200</v>
       </c>
       <c r="E101">
-        <v>9.272507931473598</v>
+        <v>9.275134823070971</v>
       </c>
       <c r="F101">
         <v>400</v>
       </c>
       <c r="G101">
-        <v>29.15877886857595</v>
+        <v>29.02754938011902</v>
       </c>
       <c r="H101">
         <v>600</v>
       </c>
       <c r="I101">
-        <v>58.6550936937784</v>
+        <v>58.83426881881364</v>
       </c>
       <c r="J101">
         <v>800</v>
       </c>
       <c r="K101">
-        <v>96.0144703033336</v>
+        <v>95.4354342880642</v>
       </c>
       <c r="L101">
         <v>1000</v>
       </c>
       <c r="M101">
-        <v>140.2423457614122</v>
+        <v>141.2146027268211</v>
       </c>
       <c r="N101">
         <v>1200</v>
       </c>
       <c r="O101">
-        <v>188.832983377839</v>
+        <v>190.6528506377088</v>
       </c>
       <c r="P101">
         <v>1400</v>
       </c>
       <c r="Q101">
-        <v>243.0128803795694</v>
+        <v>244.9929053162132</v>
       </c>
       <c r="R101">
         <v>1600</v>
       </c>
       <c r="S101">
-        <v>302.7279943830131</v>
+        <v>301.5798045845196</v>
       </c>
       <c r="T101">
         <v>1800</v>
       </c>
       <c r="U101">
-        <v>360.4505852120927</v>
+        <v>359.9208402177269</v>
       </c>
       <c r="V101">
         <v>2000</v>
       </c>
       <c r="W101">
-        <v>419.2163278293307</v>
+        <v>420.4200412192266</v>
       </c>
     </row>
   </sheetData>
